--- a/Текущие задачи АИС Статистика.xlsx
+++ b/Текущие задачи АИС Статистика.xlsx
@@ -21,7 +21,7 @@
     <author>tc={D598B5FC-9541-4D93-644B-B5F5B9B999FE}</author>
   </authors>
   <commentList>
-    <comment ref="D81" authorId="0" xr:uid="{D598B5FC-9541-4D93-644B-B5F5B9B999FE}">
+    <comment ref="D88" authorId="0" xr:uid="{D598B5FC-9541-4D93-644B-B5F5B9B999FE}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
   <si>
     <t xml:space="preserve">Блок задач</t>
   </si>
@@ -154,6 +154,12 @@
 продлить на 2024 г., запустить ночную генерацию</t>
   </si>
   <si>
+    <t xml:space="preserve">Проверить ошибку с детскими театрами в сводах 091-х</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лысякова утверждает ,что в Тип=Детские театры не все входят. Проверить старые ТЗ, чтото было про детские театры год или 2 назад</t>
+  </si>
+  <si>
     <t xml:space="preserve">Новые своды по 040-1, 040-2</t>
   </si>
   <si>
@@ -169,17 +175,15 @@
     <t xml:space="preserve">Добавление пункта по 89 регионам в фильтр по Субъектам РФ</t>
   </si>
   <si>
-    <t xml:space="preserve">в отчеты:
-081-1/2/3/4-2023 , 091-1/2-2023, 110-1/2-2023, 121-1/2/3, 130-1/2,
-140-1/2-2023, 241-1/2, 242-1/2/3-2023, 242дв-2-2023, 
-243-1/2/3/4-2023
+    <t xml:space="preserve">оставшиеся отчеты:
+241-1/2, 243-1/2/3/4-2023
 http://jira.mkrf.local:8080/browse/RF-1577</t>
   </si>
   <si>
     <t>сделать</t>
   </si>
   <si>
-    <t xml:space="preserve">Филимонов, Семенов, Васильев</t>
+    <t xml:space="preserve">Филимонов, Семенов</t>
   </si>
   <si>
     <t xml:space="preserve">Изменение формы 412</t>
@@ -200,13 +204,63 @@
     <t xml:space="preserve">ТЗ на свод 020-1-2024, 020-2</t>
   </si>
   <si>
+    <t xml:space="preserve">Своды по ЕМИСС</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">54.04 театры 17.04
+54.06 концертные организации 17.04
+54.18 театры других ведомств 17.04
+2.11.26 (27)  Театры (в 54.04) 17.04
+2.11.28 (29) концертные организации (в 54.06) 17.04
+54.00 общие показатели: r080_1 17.04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+54.01 библиотеки 11.05
+54.12 библиотеки (книжный фонд) (в 54.01) 11.05
+2.11.24 Библиотеки (в 54.01) 11.05
+54.18 библиотеки других ведомств 11.05
+54.02 КДУ 11.05
+54.18 КДУ других ведомств 11.05
+54.05 парки 11.05
+54.03 музеи 24.05
+54.18 музеи других ведомств 24.05
+2.11.25 музеи 24.05
+54.00 общие показатели: r079_1 24.05</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">П-4 с марта 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">формы ЗП с 1кв 2025</t>
+    <t xml:space="preserve">формы ЗП с 1кв 2025 030, 031, 035, 210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">формы ЗП 035, 036</t>
   </si>
   <si>
     <t xml:space="preserve">ТЗ сделаны, задачи на Мише</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изменение форм (410-420) НП Культура за 2024 год</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изменения в текущих фоормах или открытие новых форма за 2024 с новыми показателями. Изменение свода 420-3-2024.
+Ждем информацию об изменениях по департаментам</t>
   </si>
   <si>
     <t xml:space="preserve">НП "Эффективная экономика"</t>
@@ -298,13 +352,16 @@
   <si>
     <t xml:space="preserve">кодировки копуков и юзеров согласованы с НВ
 загрузить на тест.
-про 3хступенчатую стуктуру см. письмо НВ от Чт 13.02.2025 10:59</t>
+про 3хступенчатую стуктуру см. письмо НВ от Чт 13.02.2025 10:59
+есть письмо от Денищенко про загрузку копуков</t>
   </si>
   <si>
     <t xml:space="preserve">Реализовать форму 6-НК(краткая)</t>
   </si>
   <si>
-    <t xml:space="preserve">передал ОС Денищенко</t>
+    <t xml:space="preserve">кодировки копуков и юзеров согласованы с НВ
+- загрузил три копука, данные грязноваты - есть лишние переносы строк и тп
+про 3хступенчатую стуктуру ждем конца апреля,  см. письмо НВ от Чт 03.04.2025 16:05</t>
   </si>
   <si>
     <t>Наццели</t>
@@ -360,9 +417,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Филимонов, Семенов</t>
-  </si>
-  <si>
     <t xml:space="preserve">Изменение в своде Выгрузка по организациям (боевой сервер)</t>
   </si>
   <si>
@@ -379,8 +433,9 @@
     <t xml:space="preserve">сводный отчет по удовлетворительности состояния зданий: за 2019 по регионам для ОС</t>
   </si>
   <si>
-    <t xml:space="preserve">сводные отчеты по удовлетворительности состояния зданий: за 2024 для ОЛ и ОС
-! учесть особенности отнесения к ОНП городов фед. зн-я, а также с внутригородскими районами</t>
+    <t xml:space="preserve"> + сводные отчеты по удовлетворительности состояния зданий: за 2024 для ОЛ и ОС
+ + !учесть особенности отнесения к ОНП городов фед. зн-я, а также с внутригородскими районами
+- выдача ночных сводов</t>
   </si>
   <si>
     <t>Обеспеченность</t>
@@ -391,13 +446,16 @@
   <si>
     <t xml:space="preserve">см. общий чат:
 ? утверждение методики расчета
-Разработать своды по нормативам и факту с 4 кв. 2024 (+ для регионов).</t>
+Разработать своды по нормативам и факту с 4 кв. 2024 (+ для регионов).
+доступ Минэк</t>
   </si>
   <si>
     <t xml:space="preserve">Обеспеченность учреждениями культуры в разрезе населенных пунктов (с 1 кв. 2025)</t>
   </si>
   <si>
-    <t xml:space="preserve">по новой методике</t>
+    <t xml:space="preserve">по новой методике - отложено
+1кв20225 загружен по старой схеме
+доступ Минэк</t>
   </si>
   <si>
     <t>Удовлетворенность</t>
@@ -422,10 +480,33 @@
 - нужен итоговый список организаций для мониторинга ПК</t>
   </si>
   <si>
-    <t xml:space="preserve">Форма ввода и сводный отчет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- ТЗ на форму ввода</t>
+    <t xml:space="preserve">Формы ввода (630-636)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- ТЗ на формы ввода
+- тестирование
+- открытие сборов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сводные отчеты (630-1,2,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- ТЗ на своды</t>
+  </si>
+  <si>
+    <t>Документация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контакты ОО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выкладывать контакты ОО на страницу авторизации и в общую папку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">на пост. основе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Семенов, Филимонов, Васильев</t>
   </si>
   <si>
     <t xml:space="preserve">Внешние ИС</t>
@@ -442,6 +523,15 @@
 - дослать изменения в ФЛК по формам 040, 070, 110</t>
   </si>
   <si>
+    <t xml:space="preserve">Открытые данные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Загрузить данные за 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Семенов, Васильев, Филимонов</t>
+  </si>
+  <si>
     <t xml:space="preserve">ЦАП Росстата</t>
   </si>
   <si>
@@ -452,9 +542,6 @@
 + показатели НП загружены и рассчитаны</t>
   </si>
   <si>
-    <t xml:space="preserve">Семенов, Васильев, Филимонов</t>
-  </si>
-  <si>
     <t xml:space="preserve">Интеграция с ЦАП Росстата</t>
   </si>
   <si>
@@ -502,6 +589,9 @@
 - изменения в НП</t>
   </si>
   <si>
+    <t>отменено</t>
+  </si>
+  <si>
     <t xml:space="preserve">Инструкция в Confluence по подготовке и загрузке данных</t>
   </si>
   <si>
@@ -511,7 +601,7 @@
     <t xml:space="preserve">Уточнить возможность автоматизированно подгружать атрибуты организаций в Статистику</t>
   </si>
   <si>
-    <t xml:space="preserve">в 12:00 созвон</t>
+    <t xml:space="preserve">в 12:30 созвон</t>
   </si>
   <si>
     <t xml:space="preserve">ЕСИА Минцифры</t>
@@ -532,7 +622,7 @@
     <t xml:space="preserve">+ ответы на вопросы
 + согласовать инструкцию по НКП
 + рассылка на ОО (10 марта - окончания сбора, 20 марта - можно менять справочник библиотек)
-- выложить файл с ОО после актуализации
++ выложить файл с ОО после актуализации
 + учесть отнесение библиотек к модельным</t>
   </si>
   <si>
@@ -585,7 +675,8 @@
   <si>
     <t xml:space="preserve">+ доп. время Соболева (до конца года + январь 100%)
 + срочный ТД с Соболевым на февраль
-- разработчик на место Бояркина</t>
++ разработчик на место Бояркина (Эмиль Новодворский)
+- 2-й фронтендер на время перехода на ReactJS</t>
   </si>
   <si>
     <t>Бэкенд</t>
@@ -595,12 +686,6 @@
   </si>
   <si>
     <t>http://192.168.51.5/yury.petrov/statadmin/-/issues/1</t>
-  </si>
-  <si>
-    <t>Фронтенд/бэкенд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЗ на модуль регистрации пользователей</t>
   </si>
   <si>
     <t xml:space="preserve">Задачи по модулю регистрации</t>
@@ -617,6 +702,12 @@
   </si>
   <si>
     <t xml:space="preserve">Юра должен в выхи почистить</t>
+  </si>
+  <si>
+    <t>Фронтенд/бэкенд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЗ на модуль регистрации пользователей</t>
   </si>
   <si>
     <r>
@@ -668,6 +759,9 @@
 - почистить cusobj на бою и в двх, после наката на бой от Юры</t>
   </si>
   <si>
+    <t xml:space="preserve">после наката модуля регистрации</t>
+  </si>
+  <si>
     <t xml:space="preserve">Васильев, Семенов</t>
   </si>
   <si>
@@ -722,9 +816,8 @@
   </si>
   <si>
     <t xml:space="preserve">новый логгер и обработчик запущены. Проблемы:
-+ добавление даты и времени обработки (2 даты - начало обработки и конец обработки)
-- поставить задачу Пете, чтобы по расхождениям в логгерах
-- подумать как проверить расхождения в ДВХs
+- выявить расхождения в логгерах. Проверил за 31.03 было 200тыс событий и расхождений очень мало, причем в + к новому логеру
+- пока ДВХ не проверяем, после настройки от Юры и Сергея на 58 или 143
 - проверить новый планировщик?
 - середина апреля - переход</t>
   </si>
@@ -781,6 +874,19 @@
 загнал в конфлю, сюда http://confluence.mkrf.local:8090/pages/viewpage.action?pageId=9502984</t>
   </si>
   <si>
+    <t xml:space="preserve">в статадмин добавить проверку поля src_fiastreet_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Передать Юре список новых или измененных полей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">старый обработчик по копукам не все поля переносит, учесть эти проблемы в новом обработчике</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- выяснить какие поля не обрабатываются
+- поставить задачу Петру в Гите</t>
+  </si>
+  <si>
     <t xml:space="preserve">Новый Генератор отчетов</t>
   </si>
   <si>
@@ -808,9 +914,6 @@
     <t xml:space="preserve">Работа с тикетами в ОТРС</t>
   </si>
   <si>
-    <t xml:space="preserve">на пост. основе</t>
-  </si>
-  <si>
     <t xml:space="preserve">Изменения в очередях, агентах, типах обращений</t>
   </si>
   <si>
@@ -845,9 +948,6 @@
   </si>
   <si>
     <t xml:space="preserve">внести правки по итогам ВКС. Стандартизировать записи</t>
-  </si>
-  <si>
-    <t>Документация</t>
   </si>
   <si>
     <t xml:space="preserve">Обновление руководств (ежегодно)</t>
@@ -857,6 +957,9 @@
 руководство ОО - готово
 обновить руководство ЭП
 обновить faq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Филимонов, Семенов, Васильев</t>
   </si>
   <si>
     <t xml:space="preserve">Журналы ПИК</t>
@@ -1154,6 +1257,12 @@
     <t xml:space="preserve">Дальнейшие планы на обучение</t>
   </si>
   <si>
+    <t xml:space="preserve">"Поколение Python": курс для начинающих</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разделы 1-3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Разобраться в БД Анкетолога</t>
   </si>
   <si>
@@ -1260,10 +1369,23 @@
     <t xml:space="preserve">в генераторе документов если ввести код копука и потом его выделить, то все закрывается</t>
   </si>
   <si>
-    <t xml:space="preserve">в Данных статистики , если по доку кликнуть правой кнопкой и открыть, то хреново открывается</t>
+    <t xml:space="preserve">в Данных статистики , если по доку кликнуть правой кнопкой и открыть на редактирование, то открывается будто снимется ВДЗ, хотя ВДЗ = НЕТ</t>
   </si>
   <si>
     <t xml:space="preserve">по сортировке справочников, гдето работает гдето нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ограничения на уровень управления в зависимости от головной организации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">после перехода на новый обработчик включаем сброс кэша справочников;
+планируем переход на середину апреля, когда будет новый останов Статистики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нет отдельного права для кнопки "Подписать"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">проверить обработку копуков, сверка очень много расхождений находит (вот это событие не отработало onAfterUnsetSourceEOL)</t>
   </si>
   <si>
     <t xml:space="preserve">НЕ ПОДГЛЯДЫВАЙ!!! :)</t>
@@ -1339,8 +1461,10 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <color indexed="64"/>
+      <strike/>
+      <color theme="1"/>
       <sz val="11.000000"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1350,7 +1474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1402,12 +1526,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor theme="1" tint="0.499984740745262"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="2"/>
         <bgColor indexed="2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1445,27 +1575,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color rgb="FF8EA9DB"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1489,9 +1619,7 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
@@ -1504,7 +1632,9 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
@@ -1525,6 +1655,15 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
@@ -1540,19 +1679,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1614,12 +1740,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="128">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1684,168 +1821,192 @@
     <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="4" borderId="4" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="2" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="2" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="8" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="2" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="9" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="9" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="9" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="9" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="9" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="10" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="9" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="9" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="9" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="9" borderId="6" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="9" borderId="5" numFmtId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="9" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="9" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="9" borderId="7" numFmtId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="9" borderId="7" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="9" borderId="7" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="7" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="4" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="8" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="7" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="8" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="3" borderId="2" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="2" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="4" borderId="4" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="2" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="8" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="5" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="5" numFmtId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="7" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="6" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="6" numFmtId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="6" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="6" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="4" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="6" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="8" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="8" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="0" fillId="3" borderId="5" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="4" borderId="12" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,21 +2018,27 @@
     <xf fontId="0" fillId="0" borderId="14" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="15" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="11" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="16" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="12" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="6" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="11" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1887,10 +2054,7 @@
     <xf fontId="0" fillId="9" borderId="12" numFmtId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="5" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="9" borderId="2" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1899,15 +2063,12 @@
     <xf fontId="0" fillId="9" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="11" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="9" borderId="3" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="4" borderId="5" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="6" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf fontId="1" fillId="9" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1923,12 +2084,15 @@
     <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="0" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="3" fillId="9" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1944,14 +2108,19 @@
     <xf fontId="0" fillId="0" borderId="5" numFmtId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="3" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="6" numFmtId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="7" borderId="7" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="3" borderId="7" numFmtId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
@@ -1973,13 +2142,13 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Васильев Валерьян Анатольевич" id="{FF9DFD73-81A1-BA31-67BD-5506FCD9D6A7}" userId="oc559pzhsm4z_valeryan.vasiliev" providerId="Teamlab"/>
+  <person displayName="Васильев Валерьян Анатольевич" id="{41E74220-AB60-5ACA-0324-1FDB2B718F92}" userId="oc559pzhsm4z_valeryan.vasiliev" providerId="Teamlab"/>
 </personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Таблица1" ref="$A$1:$H$145">
-  <autoFilter ref="$A$1:$H$145"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Таблица1" ref="$A$1:$H$155">
+  <autoFilter ref="$A$1:$H$155"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Блок задач"/>
     <tableColumn id="2" name="Блок задач 2"/>
@@ -2486,7 +2655,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D81" dT="2024-12-27T08:27:22.06Z" personId="{FF9DFD73-81A1-BA31-67BD-5506FCD9D6A7}" id="{D598B5FC-9541-4D93-644B-B5F5B9B999FE}" done="1">
+  <threadedComment ref="D88" dT="2024-12-27T08:27:22.06Z" personId="{41E74220-AB60-5ACA-0324-1FDB2B718F92}" id="{D598B5FC-9541-4D93-644B-B5F5B9B999FE}" done="1">
     <text xml:space="preserve">'+ расширение мощностей 209.93 (Сергей, заявка отправлена) //ГОТОВО
 - настройка докеров и ПО на них на 209.93 (Юрий) //ГОТОВО
 - настройка CI/CD (Юрий)
@@ -2806,7 +2975,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="16">
-        <v>45685</v>
+        <v>45382</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>12</v>
@@ -2818,7 +2987,6 @@
         <f t="shared" si="1"/>
         <v>ВГ</v>
       </c>
-      <c r="I11" s="1"/>
     </row>
     <row r="12" ht="42.75">
       <c r="A12" s="10" t="s">
@@ -2834,20 +3002,21 @@
         <v>34</v>
       </c>
       <c r="E12" s="16">
-        <v>45692</v>
-      </c>
-      <c r="F12" s="19" t="s">
+        <v>45685</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="13" ht="71.25">
+        <v>ВГ</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" ht="42.75">
       <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
@@ -2861,19 +3030,18 @@
         <v>36</v>
       </c>
       <c r="E13" s="16">
-        <v>45741</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>37</v>
+        <v>45692</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>В2</v>
-      </c>
-      <c r="J13" s="1"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="14" ht="42.75">
       <c r="A14" s="10" t="s">
@@ -2883,17 +3051,19 @@
         <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="16">
+        <v>45750</v>
+      </c>
+      <c r="F14" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="16">
-        <v>45680</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>12</v>
-      </c>
       <c r="G14" s="15" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2909,11 +3079,11 @@
         <v>9</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="16">
-        <v>45686</v>
+        <v>45680</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>12</v>
@@ -2925,6 +3095,7 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" ht="42.75">
       <c r="A16" s="10" t="s">
@@ -2934,16 +3105,18 @@
         <v>9</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="16">
-        <v>45744</v>
+        <v>45686</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2957,20 +3130,16 @@
         <v>9</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="21" t="s">
         <v>43</v>
       </c>
+      <c r="D17" s="18"/>
       <c r="E17" s="16">
-        <v>45721</v>
+        <v>45744</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="G17" s="15"/>
       <c r="H17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2986,12 +3155,14 @@
       <c r="C18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="18"/>
+      <c r="D18" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="E18" s="16">
-        <v>45740</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>37</v>
+        <v>45721</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>21</v>
@@ -3009,14 +3180,14 @@
         <v>9</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="16">
-        <v>45736</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>12</v>
+        <v>45740</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>21</v>
@@ -3026,7 +3197,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="20" ht="42.75">
+    <row r="20" ht="242.25">
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
@@ -3034,23 +3205,23 @@
         <v>9</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="18" t="s">
         <v>47</v>
       </c>
+      <c r="D20" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="E20" s="16">
-        <v>45741</v>
+        <v>45764</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>В</v>
       </c>
     </row>
     <row r="21" ht="42.75">
@@ -3058,14 +3229,14 @@
         <v>8</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="16">
-        <v>45734</v>
+        <v>45736</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>12</v>
@@ -3078,7 +3249,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="22" ht="28.5">
+    <row r="22" ht="42.75">
       <c r="A22" s="10" t="s">
         <v>8</v>
       </c>
@@ -3088,11 +3259,9 @@
       <c r="C22" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>51</v>
-      </c>
+      <c r="D22" s="18"/>
       <c r="E22" s="16">
-        <v>45684</v>
+        <v>45741</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>12</v>
@@ -3105,7 +3274,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="23" ht="42.75" collapsed="1">
+    <row r="23" ht="42.75">
       <c r="A23" s="10" t="s">
         <v>8</v>
       </c>
@@ -3113,78 +3282,72 @@
         <v>9</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="E23" s="16">
-        <v>45650</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>12</v>
+        <v>45756</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>В2Г</v>
-      </c>
-    </row>
-    <row r="24" ht="28.5">
+        <v>21</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" ht="57">
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="12"/>
+      <c r="C24" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="E24" s="16">
-        <v>45667</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>12</v>
+        <v>45777</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" ht="42.75">
       <c r="A25" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="13">
-        <v>45690</v>
+      <c r="D25" s="18"/>
+      <c r="E25" s="16">
+        <v>45734</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>13</v>
+      <c r="G25" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="H25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="26" ht="42.75">
+    <row r="26" ht="28.5">
       <c r="A26" s="10" t="s">
         <v>8</v>
       </c>
@@ -3192,26 +3355,26 @@
         <v>9</v>
       </c>
       <c r="C26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="13">
-        <v>45695</v>
+      <c r="E26" s="16">
+        <v>45684</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="22" t="s">
-        <v>13</v>
+      <c r="G26" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="H26" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="27" ht="42.75">
+    <row r="27" ht="42.75" collapsed="1">
       <c r="A27" s="10" t="s">
         <v>8</v>
       </c>
@@ -3219,27 +3382,26 @@
         <v>9</v>
       </c>
       <c r="C27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="E27" s="16">
+        <v>45650</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="E27" s="13">
-        <v>45678</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>25</v>
       </c>
       <c r="H27" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ВГ</v>
-      </c>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" ht="42.75">
+        <v>В2Г</v>
+      </c>
+    </row>
+    <row r="28" ht="28.5">
       <c r="A28" s="10" t="s">
         <v>8</v>
       </c>
@@ -3249,21 +3411,19 @@
       <c r="C28" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="13">
-        <v>45680</v>
+      <c r="D28" s="12"/>
+      <c r="E28" s="16">
+        <v>45667</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="22" t="s">
-        <v>25</v>
+      <c r="G28" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="H28" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ВГ</v>
+        <v>-</v>
       </c>
     </row>
     <row r="29" ht="42.75">
@@ -3274,42 +3434,46 @@
         <v>9</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="12"/>
       <c r="E29" s="13">
-        <v>45747</v>
-      </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="15" t="s">
-        <v>65</v>
+        <v>45690</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="H29" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>В2</v>
-      </c>
-    </row>
-    <row r="30" ht="28.5">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="30" ht="42.75">
       <c r="A30" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>68</v>
-      </c>
       <c r="E30" s="13">
-        <v>45754</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>21</v>
+        <v>45695</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="H30" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3321,29 +3485,30 @@
         <v>8</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="16">
-        <v>45654</v>
+        <v>68</v>
+      </c>
+      <c r="E31" s="13">
+        <v>45678</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="15" t="s">
-        <v>21</v>
+      <c r="G31" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="H31" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="32" ht="57">
+        <v>ВГ</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" ht="42.75">
       <c r="A32" s="10" t="s">
         <v>8</v>
       </c>
@@ -3351,23 +3516,23 @@
         <v>9</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="16">
-        <v>45378</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>13</v>
+        <v>70</v>
+      </c>
+      <c r="E32" s="13">
+        <v>45680</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="H32" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>ВГ</v>
       </c>
     </row>
     <row r="33" ht="42.75">
@@ -3375,171 +3540,165 @@
         <v>8</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="16">
-        <v>45737</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>37</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13">
+        <v>45755</v>
+      </c>
+      <c r="F33" s="20"/>
       <c r="G33" s="15" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="H33" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>В</v>
-      </c>
-    </row>
-    <row r="34" ht="71.25">
+        <v>В2</v>
+      </c>
+    </row>
+    <row r="34" ht="28.5">
       <c r="A34" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>78</v>
+      <c r="D34" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="E34" s="13">
-        <v>45744</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>12</v>
+        <v>45777</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H34" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ВГ</v>
-      </c>
-    </row>
-    <row r="35" ht="28.5">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="35" ht="42.75">
       <c r="A35" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E35" s="16">
-        <v>45677</v>
+        <v>45654</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H35" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ВГ</v>
-      </c>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" ht="28.5">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="36" ht="57">
       <c r="A36" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="29" t="s">
-        <v>82</v>
-      </c>
       <c r="D36" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="30">
-        <v>45708</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>12</v>
+        <v>80</v>
+      </c>
+      <c r="E36" s="16">
+        <v>45385</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H36" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ВГ</v>
-      </c>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" ht="28.5">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="37" ht="57">
       <c r="A37" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="E37" s="16">
-        <v>45692</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>12</v>
+        <v>45755</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H37" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ВГ</v>
-      </c>
-    </row>
-    <row r="38" ht="57">
+        <v>В</v>
+      </c>
+    </row>
+    <row r="38" ht="71.25">
       <c r="A38" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="16">
-        <v>45762</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>37</v>
+      <c r="E38" s="13">
+        <v>45744</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H38" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>В</v>
-      </c>
-    </row>
-    <row r="39" ht="42.75">
+        <v>ВГ</v>
+      </c>
+    </row>
+    <row r="39" ht="28.5">
       <c r="A39" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>87</v>
@@ -3548,7 +3707,7 @@
         <v>88</v>
       </c>
       <c r="E39" s="16">
-        <v>45679</v>
+        <v>45677</v>
       </c>
       <c r="F39" s="19" t="s">
         <v>12</v>
@@ -3562,29 +3721,31 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" ht="42.75">
+    <row r="40" ht="28.5">
       <c r="A40" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>37</v>
+      <c r="D40" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="29">
+        <v>45708</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>12</v>
       </c>
       <c r="G40" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H40" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>В</v>
+        <v>ВГ</v>
       </c>
       <c r="I40" s="1"/>
     </row>
@@ -3593,111 +3754,118 @@
         <v>8</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>93</v>
-      </c>
       <c r="E41" s="16">
-        <v>45735</v>
+        <v>45692</v>
       </c>
       <c r="F41" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="H41" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="42" ht="28.5">
+        <v>ВГ</v>
+      </c>
+    </row>
+    <row r="42" ht="57">
       <c r="A42" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="12"/>
+        <v>92</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>93</v>
+      </c>
       <c r="E42" s="16">
-        <v>45742</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" ht="58.5" customHeight="1">
+        <v>45762</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>В</v>
+      </c>
+    </row>
+    <row r="43" ht="42.75">
       <c r="A43" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E43" s="16">
-        <v>45708</v>
+        <v>45679</v>
       </c>
       <c r="F43" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H43" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="44" ht="41.25" customHeight="1">
+        <v>ВГ</v>
+      </c>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" ht="42.75">
       <c r="A44" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="16">
-        <v>45742</v>
-      </c>
-      <c r="F44" s="33" t="s">
-        <v>37</v>
+        <v>96</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H44" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="45" ht="70.5" customHeight="1">
+        <v>В</v>
+      </c>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" ht="28.5">
       <c r="A45" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>100</v>
@@ -3705,502 +3873,516 @@
       <c r="E45" s="16">
         <v>45735</v>
       </c>
-      <c r="F45" s="33" t="s">
-        <v>37</v>
+      <c r="F45" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H45" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="46" ht="57">
+    <row r="46" ht="28.5">
       <c r="A46" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>103</v>
-      </c>
+      <c r="D46" s="12"/>
       <c r="E46" s="16">
-        <v>45737</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>94</v>
-      </c>
+        <v>45742</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="15"/>
       <c r="H46" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="47" ht="28.5">
+    <row r="47" ht="58.5" customHeight="1">
       <c r="A47" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E47" s="16">
-        <v>45737</v>
-      </c>
-      <c r="F47" s="33" t="s">
-        <v>37</v>
+        <v>45708</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="H47" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="48" ht="28.5">
-      <c r="A48" s="10" t="s">
+    <row r="48" ht="41.25" customHeight="1">
+      <c r="A48" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="16">
-        <v>45733</v>
-      </c>
-      <c r="F48" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>94</v>
+      <c r="B48" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="36">
+        <v>45751</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>21</v>
       </c>
       <c r="H48" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="49" ht="71.25">
+    <row r="49" ht="70.5" customHeight="1">
       <c r="A49" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>111</v>
+        <v>99</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>106</v>
       </c>
       <c r="E49" s="16">
-        <v>45736</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>12</v>
+        <v>45751</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>39</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H49" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ВГ</v>
-      </c>
-    </row>
-    <row r="50" ht="28.5">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="50" ht="71.25">
       <c r="A50" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="E50" s="16">
-        <v>45742</v>
-      </c>
-      <c r="F50" s="33" t="s">
-        <v>37</v>
+        <v>45755</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>39</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H50" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="51" ht="57">
-      <c r="A51" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="37">
-        <v>45644</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="38" t="s">
-        <v>16</v>
+    <row r="51" ht="42.75">
+      <c r="A51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="16">
+        <v>45755</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="H51" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ВГ</v>
-      </c>
-    </row>
-    <row r="52" s="39" customFormat="1" ht="28.5">
-      <c r="A52" s="34" t="s">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="52" ht="28.5">
+      <c r="A52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="E52" s="37">
-        <v>45639</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="38" t="s">
-        <v>121</v>
+      <c r="E52" s="16">
+        <v>45733</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="H52" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>В2Г</v>
-      </c>
-    </row>
-    <row r="53" s="39" customFormat="1" ht="28.5">
-      <c r="A53" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="37">
-        <v>45747</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G53" s="38" t="s">
-        <v>124</v>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="53" ht="71.25">
+      <c r="A53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" s="16">
+        <v>45736</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="H53" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>В2</v>
-      </c>
-    </row>
-    <row r="54" s="39" customFormat="1" ht="28.5">
-      <c r="A54" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" s="34" t="s">
+        <v>ВГ</v>
+      </c>
+    </row>
+    <row r="54" ht="42.75">
+      <c r="A54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="D54" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" s="37">
-        <v>45677</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="38" t="s">
-        <v>121</v>
+      <c r="D54" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="16">
+        <v>45748</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="H54" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>В2Г</v>
-      </c>
-    </row>
-    <row r="55" s="39" customFormat="1" ht="28.5">
-      <c r="A55" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="E55" s="37">
-        <v>45691</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="38" t="s">
-        <v>25</v>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="55" ht="28.5">
+      <c r="A55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="16">
+        <v>45750</v>
+      </c>
+      <c r="F55" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="H55" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ВГ</v>
-      </c>
-      <c r="I55" s="39"/>
-    </row>
-    <row r="56" s="39" customFormat="1">
-      <c r="A56" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D56" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E56" s="37">
-        <v>45678</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="38" t="s">
-        <v>132</v>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="56" ht="28.5">
+      <c r="A56" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="H56" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="57" s="39" customFormat="1" ht="42.75" collapsed="1">
-      <c r="A57" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" s="34" t="s">
+        <v>В2</v>
+      </c>
+    </row>
+    <row r="57" ht="57">
+      <c r="A57" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D57" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="37">
-        <v>45651</v>
+      <c r="D57" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" s="44">
+        <v>45644</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G57" s="38" t="s">
-        <v>13</v>
+      <c r="G57" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="H57" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="58" s="39" customFormat="1" ht="28.5" collapsed="1">
-      <c r="A58" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D58" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E58" s="37">
-        <v>45747</v>
-      </c>
-      <c r="F58" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G58" s="38" t="s">
-        <v>13</v>
+        <v>ВГ</v>
+      </c>
+    </row>
+    <row r="58" ht="57">
+      <c r="A58" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" s="43"/>
+      <c r="E58" s="44">
+        <v>45769</v>
+      </c>
+      <c r="F58" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="H58" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="59" s="39" customFormat="1">
-      <c r="A59" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="D59" s="35"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="38" t="s">
-        <v>13</v>
+        <v>В2</v>
+      </c>
+    </row>
+    <row r="59" s="46" customFormat="1" ht="28.5">
+      <c r="A59" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" s="44">
+        <v>45639</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="H59" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="60" s="39" customFormat="1" ht="28.5">
-      <c r="A60" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" s="34" t="s">
+        <v>В2Г</v>
+      </c>
+    </row>
+    <row r="60" s="46" customFormat="1" ht="28.5">
+      <c r="A60" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="E60" s="44">
+        <v>45754</v>
+      </c>
+      <c r="F60" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" s="45" t="s">
         <v>139</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="E60" s="30">
-        <v>45744</v>
-      </c>
-      <c r="F60" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G60" s="38" t="s">
-        <v>21</v>
       </c>
       <c r="H60" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="61" s="39" customFormat="1">
-      <c r="A61" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B61" s="34" t="s">
+        <v>В2</v>
+      </c>
+    </row>
+    <row r="61" s="46" customFormat="1" ht="28.5">
+      <c r="A61" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="C61" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="D61" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="E61" s="37"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="38" t="s">
-        <v>13</v>
+      <c r="E61" s="44">
+        <v>45677</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="H61" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="62" s="39" customFormat="1" ht="85.5">
+        <v>В2Г</v>
+      </c>
+    </row>
+    <row r="62" s="46" customFormat="1" ht="28.5">
       <c r="A62" s="41" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D62" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="E62" s="30">
-        <v>45734</v>
-      </c>
-      <c r="F62" s="43"/>
-      <c r="G62" s="44" t="s">
-        <v>13</v>
+        <v>142</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" s="44">
+        <v>45691</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="45" t="s">
+        <v>25</v>
       </c>
       <c r="H62" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="63" ht="42.75">
-      <c r="A63" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B63" s="46" t="s">
+        <v>ВГ</v>
+      </c>
+      <c r="I62" s="46"/>
+    </row>
+    <row r="63" s="46" customFormat="1">
+      <c r="A63" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" s="44">
+        <v>45678</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="45" t="s">
         <v>147</v>
-      </c>
-      <c r="C63" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="D63" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="E63" s="47"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="49" t="s">
-        <v>13</v>
       </c>
       <c r="H63" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="64" s="39" customFormat="1" ht="14.25">
-      <c r="A64" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B64" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="D64" s="46"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="49" t="s">
+    <row r="64" s="46" customFormat="1" ht="42.75" collapsed="1">
+      <c r="A64" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="44">
+        <v>45651</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="45" t="s">
         <v>13</v>
       </c>
       <c r="H64" s="1" t="str">
@@ -4208,26 +4390,26 @@
         <v>-</v>
       </c>
     </row>
-    <row r="65" ht="28.5">
-      <c r="A65" s="51" t="s">
+    <row r="65" s="46" customFormat="1" ht="28.5" collapsed="1">
+      <c r="A65" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="44">
+        <v>45747</v>
+      </c>
+      <c r="F65" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="B65" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="C65" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="D65" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="E65" s="54">
-        <v>45642</v>
-      </c>
-      <c r="F65" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="56" t="s">
+      <c r="G65" s="45" t="s">
         <v>13</v>
       </c>
       <c r="H65" s="1" t="str">
@@ -4235,26 +4417,22 @@
         <v>-</v>
       </c>
     </row>
-    <row r="66" ht="28.5">
-      <c r="A66" s="51" t="s">
+    <row r="66" s="46" customFormat="1">
+      <c r="A66" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="42"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="B66" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="C66" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="D66" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="E66" s="54">
-        <v>45644</v>
-      </c>
-      <c r="F66" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="56" t="s">
+      <c r="G66" s="45" t="s">
         <v>13</v>
       </c>
       <c r="H66" s="1" t="str">
@@ -4262,80 +4440,76 @@
         <v>-</v>
       </c>
     </row>
-    <row r="67" ht="28.5">
-      <c r="A67" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="B67" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="C67" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="D67" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="E67" s="54">
-        <v>45644</v>
-      </c>
-      <c r="F67" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="56" t="s">
-        <v>13</v>
+    <row r="67" s="46" customFormat="1" ht="28.5">
+      <c r="A67" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="E67" s="29">
+        <v>45755</v>
+      </c>
+      <c r="F67" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" s="45" t="s">
+        <v>21</v>
       </c>
       <c r="H67" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
-    <row r="68" ht="28.5">
-      <c r="A68" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="B68" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="C68" s="52" t="s">
+    <row r="68" s="46" customFormat="1">
+      <c r="A68" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="D68" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="E68" s="60">
-        <v>45649</v>
-      </c>
-      <c r="F68" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="56" t="s">
-        <v>25</v>
+      <c r="E68" s="44"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="45" t="s">
+        <v>13</v>
       </c>
       <c r="H68" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ВГ</v>
-      </c>
-    </row>
-    <row r="69" ht="42.75">
-      <c r="A69" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="B69" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" s="52" t="s">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="69" s="46" customFormat="1" ht="85.5">
+      <c r="A69" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="D69" s="61" t="s">
+      <c r="D69" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="E69" s="54">
-        <v>45736</v>
-      </c>
-      <c r="F69" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="G69" s="56" t="s">
+      <c r="E69" s="51">
+        <v>45749</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="52" t="s">
         <v>13</v>
       </c>
       <c r="H69" s="1" t="str">
@@ -4343,53 +4517,43 @@
         <v>-</v>
       </c>
     </row>
-    <row r="70" ht="30" collapsed="1">
-      <c r="A70" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="B70" s="51" t="s">
+    <row r="70" ht="42.75">
+      <c r="A70" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="C70" s="52" t="s">
+      <c r="C70" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="D70" s="62" t="s">
+      <c r="D70" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="E70" s="60">
-        <v>45631</v>
-      </c>
-      <c r="F70" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="56" t="s">
-        <v>25</v>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="55" t="s">
+        <v>13</v>
       </c>
       <c r="H70" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ВГ</v>
-      </c>
-    </row>
-    <row r="71" ht="28.5">
-      <c r="A71" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="B71" s="51" t="s">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="71" s="46" customFormat="1" ht="14.25">
+      <c r="A71" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="C71" s="52" t="s">
+      <c r="C71" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="D71" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="E71" s="54">
-        <v>45653</v>
-      </c>
-      <c r="F71" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="56" t="s">
+      <c r="D71" s="54"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="55" t="s">
         <v>13</v>
       </c>
       <c r="H71" s="1" t="str">
@@ -4397,26 +4561,26 @@
         <v>-</v>
       </c>
     </row>
-    <row r="72" ht="156.75">
-      <c r="A72" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="B72" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="C72" s="52" t="s">
+    <row r="72" ht="28.5">
+      <c r="A72" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="D72" s="63" t="s">
+      <c r="B72" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="E72" s="54">
-        <v>45700</v>
-      </c>
-      <c r="F72" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="56" t="s">
+      <c r="C72" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="D72" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" s="61">
+        <v>45642</v>
+      </c>
+      <c r="F72" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="63" t="s">
         <v>13</v>
       </c>
       <c r="H72" s="1" t="str">
@@ -4424,321 +4588,327 @@
         <v>-</v>
       </c>
     </row>
-    <row r="73" ht="156.75">
-      <c r="A73" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="B73" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="C73" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="D73" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="E73" s="65">
-        <v>45703</v>
-      </c>
-      <c r="F73" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="56" t="s">
-        <v>25</v>
+    <row r="73" ht="28.5">
+      <c r="A73" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="E73" s="61">
+        <v>45644</v>
+      </c>
+      <c r="F73" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="63" t="s">
+        <v>13</v>
       </c>
       <c r="H73" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ВГ</v>
-      </c>
-    </row>
-    <row r="74" ht="171">
-      <c r="A74" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="B74" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="C74" s="52" t="s">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="74" ht="28.5">
+      <c r="A74" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="D74" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="E74" s="66">
-        <v>45733</v>
-      </c>
-      <c r="F74" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="G74" s="56" t="s">
+      <c r="B74" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" s="61">
+        <v>45644</v>
+      </c>
+      <c r="F74" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="63" t="s">
         <v>13</v>
       </c>
       <c r="H74" s="1" t="str">
-        <f t="shared" ref="H74:H100" si="2">IF(MID(G74,1,4)="Васи",IF(F74="готово","ВГ","В"),IF(IFERROR(FIND("Васи",G74),0)&gt;0,IF(F74="готово","В2Г","В2"),"-"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="75" ht="171">
-      <c r="A75" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="B75" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="C75" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="D75" s="67" t="s">
-        <v>174</v>
-      </c>
-      <c r="E75" s="66">
-        <v>45747</v>
-      </c>
-      <c r="F75" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="G75" s="56" t="s">
+        <f t="shared" ref="H74:H109" si="2">IF(MID(G74,1,4)="Васи",IF(F74="готово","ВГ","В"),IF(IFERROR(FIND("Васи",G74),0)&gt;0,IF(F74="готово","В2Г","В2"),"-"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="75" ht="28.5">
+      <c r="A75" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" s="59" t="s">
         <v>175</v>
+      </c>
+      <c r="D75" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="E75" s="67">
+        <v>45649</v>
+      </c>
+      <c r="F75" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="63" t="s">
+        <v>25</v>
       </c>
       <c r="H75" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>В</v>
-      </c>
-    </row>
-    <row r="76" ht="57">
-      <c r="A76" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="B76" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="C76" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="D76" s="52" t="s">
+        <v>ВГ</v>
+      </c>
+    </row>
+    <row r="76" ht="42.75">
+      <c r="A76" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="E76" s="54"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="56" t="s">
-        <v>21</v>
+      <c r="D76" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" s="61">
+        <v>45750</v>
+      </c>
+      <c r="F76" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" s="63" t="s">
+        <v>13</v>
       </c>
       <c r="H76" s="1" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
-    <row r="77" ht="142.5">
-      <c r="A77" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="B77" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C77" s="70" t="s">
-        <v>178</v>
-      </c>
-      <c r="D77" s="71" t="s">
+    <row r="77" ht="30" collapsed="1">
+      <c r="A77" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="E77" s="54"/>
-      <c r="F77" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="G77" s="73" t="s">
+      <c r="C77" s="59" t="s">
         <v>180</v>
+      </c>
+      <c r="D77" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="E77" s="67">
+        <v>45631</v>
+      </c>
+      <c r="F77" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="63" t="s">
+        <v>25</v>
       </c>
       <c r="H77" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="78" ht="42.75">
-      <c r="A78" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C78" s="11" t="s">
+        <v>ВГ</v>
+      </c>
+    </row>
+    <row r="78" ht="156.75">
+      <c r="A78" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B78" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D78" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="E78" s="23"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="15" t="s">
-        <v>121</v>
+      <c r="E78" s="61">
+        <v>45700</v>
+      </c>
+      <c r="F78" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="63" t="s">
+        <v>13</v>
       </c>
       <c r="H78" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>В2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C79" s="11" t="s">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="79" ht="156.75">
+      <c r="A79" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="C79" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="16">
-        <v>45382</v>
-      </c>
-      <c r="F79" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>13</v>
+      <c r="D79" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="E79" s="71">
+        <v>45703</v>
+      </c>
+      <c r="F79" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="63" t="s">
+        <v>25</v>
       </c>
       <c r="H79" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="80" ht="28.5" collapsed="1">
-      <c r="A80" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C80" s="11" t="s">
+        <v>ВГ</v>
+      </c>
+    </row>
+    <row r="80" ht="156.75">
+      <c r="A80" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="D80" s="26" t="s">
+      <c r="C80" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="E80" s="13">
-        <v>45636</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H80" s="1" t="str">
+      <c r="D80" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="E80" s="61">
+        <v>45653</v>
+      </c>
+      <c r="F80" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="73" t="str">
         <f t="shared" si="2"/>
-        <v>ВГ</v>
-      </c>
-    </row>
-    <row r="81" ht="71.25">
-      <c r="A81" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C81" s="11" t="s">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="81" ht="171">
+      <c r="A81" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="D81" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E81" s="30">
-        <v>45742</v>
-      </c>
-      <c r="F81" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>25</v>
+      <c r="E81" s="74">
+        <v>45750</v>
+      </c>
+      <c r="F81" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" s="63" t="s">
+        <v>13</v>
       </c>
       <c r="H81" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>В</v>
-      </c>
-    </row>
-    <row r="82" ht="71.25">
-      <c r="A82" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B82" s="10" t="s">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="82" ht="171">
+      <c r="A82" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="E82" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="F82" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" s="63" t="s">
         <v>192</v>
-      </c>
-      <c r="E82" s="13">
-        <v>45698</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="H82" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ВГ</v>
-      </c>
-    </row>
-    <row r="83" ht="42.75">
-      <c r="A83" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C83" s="11" t="s">
+        <v>В</v>
+      </c>
+    </row>
+    <row r="83" ht="57">
+      <c r="A83" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D83" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="E83" s="76">
-        <v>45701</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>25</v>
+      <c r="E83" s="61"/>
+      <c r="F83" s="75"/>
+      <c r="G83" s="63" t="s">
+        <v>21</v>
       </c>
       <c r="H83" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ВГ</v>
-      </c>
-    </row>
-    <row r="84" ht="28.5">
-      <c r="A84" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B84" s="10" t="s">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="84" ht="142.5">
+      <c r="A84" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="D84" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="D84" s="77" t="s">
+      <c r="E84" s="61"/>
+      <c r="F84" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="G84" s="80" t="s">
         <v>197</v>
-      </c>
-      <c r="E84" s="65">
-        <v>45716</v>
-      </c>
-      <c r="F84" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="H84" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ВГ</v>
-      </c>
-    </row>
-    <row r="85" ht="28.5">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="85" ht="42.75">
       <c r="A85" s="10" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>198</v>
@@ -4746,65 +4916,61 @@
       <c r="C85" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D85" s="79"/>
-      <c r="E85" s="54">
-        <v>45747</v>
-      </c>
-      <c r="F85" s="80" t="s">
-        <v>37</v>
-      </c>
+      <c r="D85" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" s="81"/>
+      <c r="F85" s="40"/>
       <c r="G85" s="15" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="H85" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="86" ht="57">
+        <v>В2</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" s="10" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D86" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="E86" s="54" t="s">
-        <v>202</v>
+      <c r="D86" s="11"/>
+      <c r="E86" s="16">
+        <v>45382</v>
       </c>
       <c r="F86" s="82" t="s">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H86" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>В</v>
-      </c>
-    </row>
-    <row r="87" ht="57">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="87" ht="28.5" collapsed="1">
       <c r="A87" s="10" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="C87" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D87" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D87" s="81" t="s">
-        <v>205</v>
-      </c>
-      <c r="E87" s="83">
-        <v>45699</v>
-      </c>
-      <c r="F87" s="84" t="s">
+      <c r="E87" s="13">
+        <v>45636</v>
+      </c>
+      <c r="F87" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G87" s="15" t="s">
@@ -4815,116 +4981,132 @@
         <v>ВГ</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" ht="71.25">
       <c r="A88" s="10" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B88" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D88" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C88" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D88" s="85" t="s">
-        <v>208</v>
-      </c>
-      <c r="E88" s="54"/>
-      <c r="F88" s="82"/>
+      <c r="E88" s="29">
+        <v>45751</v>
+      </c>
+      <c r="F88" s="83" t="s">
+        <v>39</v>
+      </c>
       <c r="G88" s="15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H88" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>В</v>
+      </c>
+    </row>
+    <row r="89" ht="71.25">
       <c r="A89" s="10" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B89" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D89" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C89" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D89" s="11"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="74"/>
+      <c r="E89" s="13">
+        <v>45698</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G89" s="15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H89" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="90" ht="28.5">
+        <v>ВГ</v>
+      </c>
+    </row>
+    <row r="90" ht="42.75">
       <c r="A90" s="10" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="C90" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D90" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="86"/>
-      <c r="F90" s="74"/>
+      <c r="E90" s="84">
+        <v>45701</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="G90" s="15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H90" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v>ВГ</v>
       </c>
     </row>
     <row r="91" ht="28.5">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B91" s="34" t="s">
+      <c r="C91" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C91" s="35" t="s">
+      <c r="D91" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="D91" s="35"/>
-      <c r="E91" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="F91" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="G91" s="38" t="s">
-        <v>121</v>
+      <c r="E91" s="71">
+        <v>45716</v>
+      </c>
+      <c r="F91" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="H91" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>В2</v>
-      </c>
-    </row>
-    <row r="92" ht="28.5" collapsed="1">
-      <c r="A92" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B92" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="C92" s="35" t="s">
+        <v>ВГ</v>
+      </c>
+    </row>
+    <row r="92" ht="28.5">
+      <c r="A92" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D92" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="E92" s="88">
-        <v>45674</v>
-      </c>
-      <c r="F92" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="90" t="s">
+      <c r="D92" s="87"/>
+      <c r="E92" s="61">
+        <v>45754</v>
+      </c>
+      <c r="F92" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="G92" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H92" s="1" t="str">
@@ -4932,26 +5114,26 @@
         <v>-</v>
       </c>
     </row>
-    <row r="93" ht="28.5" collapsed="1">
-      <c r="A93" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B93" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="C93" s="35" t="s">
+    <row r="93" ht="57">
+      <c r="A93" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D93" s="89" t="s">
         <v>218</v>
       </c>
-      <c r="D93" s="91" t="s">
+      <c r="E93" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="E93" s="88">
-        <v>45747</v>
-      </c>
-      <c r="F93" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="G93" s="38" t="s">
+      <c r="F93" s="90" t="s">
+        <v>220</v>
+      </c>
+      <c r="G93" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H93" s="1" t="str">
@@ -4959,151 +5141,145 @@
         <v>В</v>
       </c>
     </row>
-    <row r="94" ht="28.5">
-      <c r="A94" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B94" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="C94" s="35" t="s">
+    <row r="94" ht="57">
+      <c r="A94" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D94" s="35" t="s">
+      <c r="D94" s="89" t="s">
         <v>222</v>
       </c>
-      <c r="E94" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="F94" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="G94" s="38" t="s">
-        <v>121</v>
+      <c r="E94" s="91">
+        <v>45699</v>
+      </c>
+      <c r="F94" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="H94" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>В2</v>
-      </c>
-    </row>
-    <row r="95" s="39" customFormat="1" ht="28.5">
-      <c r="A95" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B95" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="C95" s="35" t="s">
+        <v>ВГ</v>
+      </c>
+    </row>
+    <row r="95" ht="57">
+      <c r="A95" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D95" s="35"/>
-      <c r="E95" s="94"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="38" t="s">
-        <v>13</v>
+      <c r="D95" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="E95" s="84">
+        <v>45751</v>
+      </c>
+      <c r="F95" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="H95" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="96" ht="28.5">
-      <c r="A96" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B96" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C96" s="35" t="s">
+        <v>В</v>
+      </c>
+    </row>
+    <row r="96" ht="57">
+      <c r="A96" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D96" s="35"/>
-      <c r="E96" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="F96" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="G96" s="38" t="s">
-        <v>121</v>
+      <c r="D96" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="E96" s="93">
+        <v>45772</v>
+      </c>
+      <c r="F96" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="H96" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>В2</v>
-      </c>
-    </row>
-    <row r="97" s="39" customFormat="1" ht="28.5">
-      <c r="A97" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B97" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C97" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="D97" s="35" t="s">
+        <v>В</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="E97" s="37">
-        <v>45741</v>
-      </c>
-      <c r="F97" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G97" s="38" t="s">
-        <v>21</v>
+      <c r="C97" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D97" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="E97" s="67"/>
+      <c r="F97" s="95"/>
+      <c r="G97" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="H97" s="1" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
-    <row r="98" s="39" customFormat="1" ht="57">
-      <c r="A98" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B98" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="C98" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="D98" s="35" t="s">
+    <row r="98">
+      <c r="A98" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E98" s="95">
-        <v>45695</v>
-      </c>
-      <c r="F98" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="38" t="s">
-        <v>38</v>
+      <c r="C98" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D98" s="11"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="82"/>
+      <c r="G98" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="H98" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>В2Г</v>
-      </c>
-    </row>
-    <row r="99" s="39" customFormat="1" ht="28.5">
-      <c r="A99" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B99" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="C99" s="35" t="s">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="99" ht="28.5">
+      <c r="A99" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D99" s="35"/>
-      <c r="E99" s="95">
-        <v>45674</v>
-      </c>
-      <c r="F99" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="90" t="s">
+      <c r="D99" s="11"/>
+      <c r="E99" s="96"/>
+      <c r="F99" s="82"/>
+      <c r="G99" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H99" s="1" t="str">
@@ -5111,753 +5287,777 @@
         <v>-</v>
       </c>
     </row>
-    <row r="100" s="39" customFormat="1" ht="28.5">
-      <c r="A100" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B100" s="34" t="s">
+    <row r="100" ht="28.5">
+      <c r="A100" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="C100" s="35" t="s">
+      <c r="B100" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="D100" s="35"/>
-      <c r="E100" s="95">
-        <v>45672</v>
+      <c r="C100" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D100" s="42"/>
+      <c r="E100" s="32" t="s">
+        <v>125</v>
       </c>
       <c r="F100" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="90" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="G100" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="H100" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="101" s="39" customFormat="1" ht="28.5">
-      <c r="A101" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B101" s="34" t="s">
+        <v>В2</v>
+      </c>
+    </row>
+    <row r="101" ht="28.5" collapsed="1">
+      <c r="A101" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="C101" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="D101" s="35"/>
-      <c r="E101" s="95">
+      <c r="B101" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="C101" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="D101" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="E101" s="98">
+        <v>45674</v>
+      </c>
+      <c r="F101" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="102" ht="28.5" collapsed="1">
+      <c r="A102" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B102" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="D102" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="E102" s="98">
+        <v>45747</v>
+      </c>
+      <c r="F102" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H102" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ВГ</v>
+      </c>
+    </row>
+    <row r="103" ht="28.5">
+      <c r="A103" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B103" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="D103" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="E103" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F103" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="G103" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="H103" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>В2</v>
+      </c>
+    </row>
+    <row r="104" s="46" customFormat="1" ht="28.5">
+      <c r="A104" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B104" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="C104" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="D104" s="42"/>
+      <c r="E104" s="103"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="105" ht="28.5">
+      <c r="A105" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B105" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="C105" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="D105" s="42"/>
+      <c r="E105" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F105" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G105" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="H105" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>В2</v>
+      </c>
+    </row>
+    <row r="106" s="46" customFormat="1" ht="28.5">
+      <c r="A106" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B106" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="C106" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="D106" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="E106" s="29">
+        <v>45757</v>
+      </c>
+      <c r="F106" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G106" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H106" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="107" s="46" customFormat="1" ht="57">
+      <c r="A107" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B107" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="D107" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="E107" s="104">
+        <v>45695</v>
+      </c>
+      <c r="F107" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="H107" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>В2Г</v>
+      </c>
+    </row>
+    <row r="108" s="46" customFormat="1" ht="28.5">
+      <c r="A108" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B108" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="C108" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D108" s="42"/>
+      <c r="E108" s="104">
+        <v>45674</v>
+      </c>
+      <c r="F108" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="109" s="46" customFormat="1" ht="28.5">
+      <c r="A109" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B109" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="C109" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="D109" s="42"/>
+      <c r="E109" s="104">
+        <v>45672</v>
+      </c>
+      <c r="F109" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="110" s="46" customFormat="1" ht="28.5">
+      <c r="A110" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B110" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="C110" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="D110" s="42"/>
+      <c r="E110" s="104">
         <v>45680</v>
       </c>
-      <c r="F101" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="90" t="s">
+      <c r="F110" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="H101" s="1" t="str">
-        <f t="shared" ref="H101:H145" si="3">IF(MID(G101,1,4)="Васи",IF(F101="готово","ВГ","В"),IF(IFERROR(FIND("Васи",G101),0)&gt;0,IF(F101="готово","В2Г","В2"),"-"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="102" s="39" customFormat="1" ht="28.5">
-      <c r="A102" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B102" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="C102" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="D102" s="98" t="s">
-        <v>238</v>
-      </c>
-      <c r="E102" s="99">
-        <v>45747</v>
-      </c>
-      <c r="F102" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="G102" s="38" t="s">
+      <c r="H110" s="1" t="str">
+        <f t="shared" ref="H110:H155" si="3">IF(MID(G110,1,4)="Васи",IF(F110="готово","ВГ","В"),IF(IFERROR(FIND("Васи",G110),0)&gt;0,IF(F110="готово","В2Г","В2"),"-"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="111" s="46" customFormat="1" ht="28.5">
+      <c r="A111" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B111" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="C111" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="D111" s="106" t="s">
+        <v>258</v>
+      </c>
+      <c r="E111" s="107">
+        <v>45775</v>
+      </c>
+      <c r="F111" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="G111" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H102" s="1" t="str">
+      <c r="H111" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="103" ht="28.5">
-      <c r="A103" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B103" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="C103" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="D103" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="E103" s="99">
+    <row r="112" ht="28.5">
+      <c r="A112" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B112" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C112" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="D112" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="E112" s="107">
         <v>45611</v>
       </c>
-      <c r="F103" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="38" t="s">
+      <c r="F112" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H103" s="1" t="str">
+      <c r="H112" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="104" s="39" customFormat="1" ht="28.5">
-      <c r="A104" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B104" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="C104" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="D104" s="35"/>
-      <c r="E104" s="99">
-        <v>45747</v>
-      </c>
-      <c r="F104" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="G104" s="38" t="s">
+    <row r="113" s="46" customFormat="1" ht="28.5">
+      <c r="A113" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B113" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="C113" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="D113" s="42"/>
+      <c r="E113" s="107">
+        <v>45775</v>
+      </c>
+      <c r="F113" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G113" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H104" s="1" t="str">
+      <c r="H113" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="105" s="39" customFormat="1" ht="28.5">
-      <c r="A105" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B105" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="C105" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="D105" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="E105" s="99"/>
-      <c r="F105" s="40"/>
-      <c r="G105" s="38" t="s">
+    <row r="114" s="46" customFormat="1" ht="28.5">
+      <c r="A114" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B114" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="C114" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="D114" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="E114" s="107"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H105" s="1" t="str">
+      <c r="H114" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="D106" s="101" t="s">
-        <v>250</v>
-      </c>
-      <c r="E106" s="16">
+    <row r="115">
+      <c r="A115" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D115" s="109" t="s">
+        <v>270</v>
+      </c>
+      <c r="E115" s="16">
         <v>45637</v>
       </c>
-      <c r="F106" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H106" s="1" t="str">
+      <c r="F115" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H115" s="1" t="str">
         <f t="shared" si="3"/>
         <v>В2Г</v>
       </c>
     </row>
-    <row r="107" ht="57" collapsed="1">
-      <c r="A107" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C107" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="D107" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="E107" s="13">
+    <row r="116" ht="57" collapsed="1">
+      <c r="A116" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C116" s="110" t="s">
+        <v>272</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E116" s="13">
         <v>45643</v>
       </c>
-      <c r="F107" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="H107" s="1" t="str">
+      <c r="F116" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="H116" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ВГ</v>
       </c>
     </row>
-    <row r="108" ht="57" collapsed="1">
-      <c r="A108" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B108" s="103" t="s">
-        <v>255</v>
-      </c>
-      <c r="C108" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="D108" s="104" t="s">
-        <v>257</v>
-      </c>
-      <c r="E108" s="13">
+    <row r="117" ht="57" collapsed="1">
+      <c r="A117" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B117" s="111" t="s">
+        <v>275</v>
+      </c>
+      <c r="C117" s="59" t="s">
+        <v>276</v>
+      </c>
+      <c r="D117" s="112" t="s">
+        <v>277</v>
+      </c>
+      <c r="E117" s="13">
         <v>45350</v>
       </c>
-      <c r="F108" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="15" t="s">
+      <c r="F117" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H108" s="1" t="str">
+      <c r="H117" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="109" ht="42.75">
-      <c r="A109" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C109" s="70" t="s">
-        <v>258</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="E109" s="16">
+    <row r="118" ht="42.75">
+      <c r="A118" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C118" s="77" t="s">
+        <v>278</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E118" s="16">
         <v>45706</v>
       </c>
-      <c r="F109" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H109" s="1" t="str">
+      <c r="F118" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H118" s="1" t="str">
         <f t="shared" si="3"/>
         <v>В2Г</v>
       </c>
     </row>
-    <row r="110" ht="42.75">
-      <c r="A110" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E110" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="F110" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G110" s="15" t="s">
+    <row r="119" ht="42.75">
+      <c r="A119" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E119" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="F119" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G119" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H110" s="1" t="str">
+      <c r="H119" s="1" t="str">
         <f t="shared" si="3"/>
         <v>В</v>
       </c>
     </row>
-    <row r="111" ht="42.75" collapsed="1">
-      <c r="A111" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="E111" s="16">
+    <row r="120" ht="42.75" collapsed="1">
+      <c r="A120" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="E120" s="16">
         <v>45992</v>
       </c>
-      <c r="F111" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="15" t="s">
+      <c r="F120" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H111" s="1" t="str">
+      <c r="H120" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ВГ</v>
       </c>
     </row>
-    <row r="112" ht="42.75">
-      <c r="A112" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E112" s="16">
+    <row r="121" ht="42.75">
+      <c r="A121" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E121" s="16">
         <v>45747</v>
       </c>
-      <c r="F112" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G112" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H112" s="1" t="str">
+      <c r="F121" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H121" s="1" t="str">
         <f t="shared" si="3"/>
         <v>В2</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C113" s="11" t="s">
+    <row r="122">
+      <c r="A122" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D113" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="E113" s="16">
-        <v>45740</v>
-      </c>
-      <c r="F113" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G113" s="15" t="s">
+      <c r="B122" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E122" s="16">
+        <v>45775</v>
+      </c>
+      <c r="F122" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G122" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H113" s="1" t="str">
+      <c r="H122" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="E114" s="13">
+    <row r="123">
+      <c r="A123" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E123" s="13">
         <v>46003</v>
       </c>
-      <c r="F114" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="15" t="s">
+      <c r="F123" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H114" s="1" t="str">
+      <c r="H123" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="115" ht="28.5">
-      <c r="A115" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="E115" s="13">
+    <row r="124" ht="28.5">
+      <c r="A124" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E124" s="13">
         <v>45645</v>
       </c>
-      <c r="F115" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="15" t="s">
+      <c r="F124" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H115" s="1" t="str">
+      <c r="H124" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="116" ht="28.5">
-      <c r="A116" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E116" s="13">
+    <row r="125" ht="28.5">
+      <c r="A125" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E125" s="13">
         <v>45311</v>
       </c>
-      <c r="F116" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="15" t="s">
+      <c r="F125" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H116" s="1" t="str">
+      <c r="H125" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="E117" s="16">
-        <v>45740</v>
-      </c>
-      <c r="F117" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="G117" s="15" t="s">
+    <row r="126">
+      <c r="A126" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E126" s="16">
+        <v>45754</v>
+      </c>
+      <c r="F126" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="G126" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H117" s="1" t="str">
+      <c r="H126" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E118" s="16"/>
-      <c r="F118" s="74"/>
-      <c r="G118" s="15" t="s">
+    <row r="127">
+      <c r="A127" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E127" s="16">
+        <v>45748</v>
+      </c>
+      <c r="F127" s="82"/>
+      <c r="G127" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H118" s="1" t="str">
+      <c r="H127" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E119" s="16">
-        <v>45740</v>
-      </c>
-      <c r="F119" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="G119" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H119" s="1" t="str">
+    <row r="128">
+      <c r="A128" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="E128" s="16">
+        <v>45754</v>
+      </c>
+      <c r="F128" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H128" s="1" t="str">
         <f t="shared" si="3"/>
         <v>В2</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="74"/>
-      <c r="G120" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="121" ht="28.5">
-      <c r="A121" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="D121" s="11"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="74"/>
-      <c r="G121" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="74"/>
-      <c r="G122" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H122" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="123" ht="28.5">
-      <c r="A123" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="D123" s="11"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="74"/>
-      <c r="G123" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H123" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="74"/>
-      <c r="G124" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H124" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="125" s="39" customFormat="1">
-      <c r="A125" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B125" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="C125" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="D125" s="35"/>
-      <c r="E125" s="37">
-        <v>45688</v>
-      </c>
-      <c r="F125" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H125" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="126" s="39" customFormat="1">
-      <c r="A126" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B126" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="C126" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="D126" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="E126" s="37">
-        <v>45687</v>
-      </c>
-      <c r="F126" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="H126" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>В2Г</v>
-      </c>
-    </row>
-    <row r="127" s="39" customFormat="1" ht="28.5">
-      <c r="A127" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B127" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="C127" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="D127" s="35"/>
-      <c r="E127" s="37">
-        <v>45636</v>
-      </c>
-      <c r="F127" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="H127" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>В2Г</v>
-      </c>
-    </row>
-    <row r="128" s="39" customFormat="1" ht="28.5">
-      <c r="A128" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B128" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="C128" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="D128" s="35"/>
-      <c r="E128" s="37">
-        <v>45671</v>
-      </c>
-      <c r="F128" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H128" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="129" s="39" customFormat="1" ht="28.5">
-      <c r="A129" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B129" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="C129" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="D129" s="35"/>
-      <c r="E129" s="37">
-        <v>45743</v>
-      </c>
-      <c r="F129" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G129" s="38" t="s">
+    <row r="129">
+      <c r="A129" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="82"/>
+      <c r="G129" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H129" s="1" t="str">
@@ -5865,402 +6065,638 @@
         <v>-</v>
       </c>
     </row>
-    <row r="130" s="39" customFormat="1">
-      <c r="A130" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B130" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="C130" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="D130" s="35"/>
-      <c r="E130" s="37">
-        <v>45639</v>
-      </c>
-      <c r="F130" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" s="38" t="s">
-        <v>121</v>
+    <row r="130" ht="28.5">
+      <c r="A130" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D130" s="11"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="82"/>
+      <c r="G130" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="H130" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>В2Г</v>
-      </c>
-    </row>
-    <row r="131" s="39" customFormat="1" ht="57">
-      <c r="A131" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B131" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="C131" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="D131" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="E131" s="37">
-        <v>45646</v>
-      </c>
-      <c r="F131" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" s="38" t="s">
-        <v>121</v>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="82"/>
+      <c r="G131" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="H131" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>В2Г</v>
-      </c>
-    </row>
-    <row r="132" s="39" customFormat="1" ht="57">
-      <c r="A132" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B132" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="C132" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="D132" s="35"/>
-      <c r="E132" s="37">
-        <v>45678</v>
-      </c>
-      <c r="F132" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" s="38" t="s">
-        <v>121</v>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="132" ht="28.5">
+      <c r="A132" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D132" s="11"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="82"/>
+      <c r="G132" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="H132" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>В2Г</v>
-      </c>
-    </row>
-    <row r="133" s="39" customFormat="1" ht="57">
-      <c r="A133" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B133" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="C133" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="D133" s="35"/>
-      <c r="E133" s="37">
-        <v>45685</v>
-      </c>
-      <c r="F133" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" s="38" t="s">
-        <v>121</v>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="82"/>
+      <c r="G133" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="H133" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>В2Г</v>
-      </c>
-    </row>
-    <row r="134" s="39" customFormat="1" ht="57">
-      <c r="A134" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B134" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="C134" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="D134" s="35"/>
-      <c r="E134" s="37">
-        <v>45700</v>
-      </c>
-      <c r="F134" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" s="38" t="s">
-        <v>121</v>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="134" s="46" customFormat="1">
+      <c r="A134" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B134" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="C134" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="D134" s="42"/>
+      <c r="E134" s="44">
+        <v>45688</v>
+      </c>
+      <c r="F134" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="45" t="s">
+        <v>13</v>
       </c>
       <c r="H134" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>В2Г</v>
-      </c>
-    </row>
-    <row r="135" s="39" customFormat="1" ht="57">
-      <c r="A135" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B135" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="C135" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="D135" s="35"/>
-      <c r="E135" s="37">
-        <v>45707</v>
-      </c>
-      <c r="F135" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" s="38" t="s">
-        <v>121</v>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="135" s="46" customFormat="1">
+      <c r="A135" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B135" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="C135" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="D135" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="E135" s="44">
+        <v>45687</v>
+      </c>
+      <c r="F135" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="H135" s="1" t="str">
         <f t="shared" si="3"/>
         <v>В2Г</v>
       </c>
     </row>
-    <row r="136" s="39" customFormat="1" ht="57">
-      <c r="A136" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B136" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="C136" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="D136" s="35"/>
-      <c r="E136" s="37">
-        <v>45714</v>
-      </c>
-      <c r="F136" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" s="38" t="s">
-        <v>121</v>
+    <row r="136" s="46" customFormat="1" ht="28.5">
+      <c r="A136" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B136" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="C136" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="D136" s="42"/>
+      <c r="E136" s="44">
+        <v>45636</v>
+      </c>
+      <c r="F136" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="H136" s="1" t="str">
         <f t="shared" si="3"/>
         <v>В2Г</v>
       </c>
     </row>
-    <row r="137" s="39" customFormat="1" ht="57">
-      <c r="A137" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B137" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="C137" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="D137" s="35"/>
-      <c r="E137" s="37">
-        <v>45721</v>
-      </c>
-      <c r="F137" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" s="38" t="s">
-        <v>121</v>
+    <row r="137" s="46" customFormat="1" ht="28.5">
+      <c r="A137" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B137" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="C137" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="D137" s="42"/>
+      <c r="E137" s="44">
+        <v>45671</v>
+      </c>
+      <c r="F137" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="45" t="s">
+        <v>13</v>
       </c>
       <c r="H137" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>В2Г</v>
-      </c>
-    </row>
-    <row r="138" s="39" customFormat="1" ht="57">
-      <c r="A138" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B138" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="C138" s="35" t="s">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="138" s="46" customFormat="1" ht="28.5">
+      <c r="A138" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="D138" s="35"/>
-      <c r="E138" s="37">
-        <v>45742</v>
-      </c>
-      <c r="F138" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G138" s="38" t="s">
-        <v>121</v>
+      <c r="B138" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="C138" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="D138" s="42"/>
+      <c r="E138" s="44">
+        <v>45750</v>
+      </c>
+      <c r="F138" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G138" s="45" t="s">
+        <v>13</v>
       </c>
       <c r="H138" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>В2</v>
-      </c>
-    </row>
-    <row r="139" s="39" customFormat="1" ht="57">
-      <c r="A139" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B139" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="C139" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="D139" s="35"/>
-      <c r="E139" s="37">
-        <v>45744</v>
-      </c>
-      <c r="F139" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G139" s="38" t="s">
-        <v>16</v>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="139" s="46" customFormat="1">
+      <c r="A139" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B139" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="C139" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="D139" s="42"/>
+      <c r="E139" s="44">
+        <v>45639</v>
+      </c>
+      <c r="F139" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="H139" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>В</v>
-      </c>
-      <c r="I139" s="39"/>
-    </row>
-    <row r="140" s="39" customFormat="1" ht="57">
-      <c r="A140" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B140" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="C140" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="D140" s="35"/>
-      <c r="E140" s="37">
-        <v>45744</v>
-      </c>
-      <c r="F140" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G140" s="38" t="s">
-        <v>38</v>
+        <v>В2Г</v>
+      </c>
+    </row>
+    <row r="140" s="46" customFormat="1" ht="57">
+      <c r="A140" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B140" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="C140" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="D140" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="E140" s="44">
+        <v>45646</v>
+      </c>
+      <c r="F140" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="H140" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>В2</v>
-      </c>
-      <c r="I140" s="39"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B141" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="C141" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="D141" s="34"/>
-      <c r="E141" s="37">
-        <v>45614</v>
-      </c>
-      <c r="F141" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" s="38" t="s">
-        <v>13</v>
+        <v>В2Г</v>
+      </c>
+    </row>
+    <row r="141" s="46" customFormat="1" ht="57">
+      <c r="A141" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B141" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="C141" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="D141" s="42"/>
+      <c r="E141" s="44">
+        <v>45678</v>
+      </c>
+      <c r="F141" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="H141" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="D142" s="11"/>
-      <c r="E142" s="16"/>
-      <c r="F142" s="74"/>
-      <c r="G142" s="15" t="s">
-        <v>13</v>
+        <v>В2Г</v>
+      </c>
+    </row>
+    <row r="142" s="46" customFormat="1" ht="57">
+      <c r="A142" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B142" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="C142" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="D142" s="42"/>
+      <c r="E142" s="44">
+        <v>45685</v>
+      </c>
+      <c r="F142" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="H142" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="D143" s="11"/>
-      <c r="E143" s="16"/>
-      <c r="F143" s="74"/>
-      <c r="G143" s="15" t="s">
-        <v>13</v>
+        <v>В2Г</v>
+      </c>
+    </row>
+    <row r="143" s="46" customFormat="1" ht="57">
+      <c r="A143" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B143" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="C143" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="D143" s="42"/>
+      <c r="E143" s="44">
+        <v>45700</v>
+      </c>
+      <c r="F143" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="H143" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="144" ht="28.5">
-      <c r="A144" s="105" t="s">
-        <v>319</v>
-      </c>
-      <c r="B144" s="105" t="s">
+        <v>В2Г</v>
+      </c>
+    </row>
+    <row r="144" s="46" customFormat="1" ht="57">
+      <c r="A144" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B144" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="C144" s="102" t="s">
-        <v>325</v>
-      </c>
-      <c r="D144" s="106" t="s">
-        <v>326</v>
-      </c>
-      <c r="E144" s="107">
-        <v>45645</v>
+      <c r="C144" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="D144" s="42"/>
+      <c r="E144" s="44">
+        <v>45707</v>
       </c>
       <c r="F144" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="G144" s="109" t="s">
-        <v>13</v>
+      <c r="G144" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="H144" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="145" ht="14.25">
-      <c r="A145" s="51" t="s">
-        <v>319</v>
-      </c>
-      <c r="B145" s="110" t="s">
-        <v>327</v>
-      </c>
-      <c r="C145" s="110" t="s">
-        <v>328</v>
-      </c>
-      <c r="D145" s="110" t="s">
-        <v>329</v>
-      </c>
-      <c r="E145" s="83">
-        <v>45734</v>
-      </c>
-      <c r="F145" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="G145" s="111" t="s">
+        <v>В2Г</v>
+      </c>
+    </row>
+    <row r="145" s="46" customFormat="1" ht="57">
+      <c r="A145" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B145" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="C145" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="D145" s="42"/>
+      <c r="E145" s="44">
+        <v>45714</v>
+      </c>
+      <c r="F145" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="H145" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>В2Г</v>
+      </c>
+    </row>
+    <row r="146" s="46" customFormat="1" ht="57">
+      <c r="A146" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B146" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="C146" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="D146" s="42"/>
+      <c r="E146" s="44">
+        <v>45721</v>
+      </c>
+      <c r="F146" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="H146" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>В2Г</v>
+      </c>
+    </row>
+    <row r="147" s="46" customFormat="1" ht="57">
+      <c r="A147" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B147" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="C147" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="D147" s="42"/>
+      <c r="E147" s="44">
+        <v>45742</v>
+      </c>
+      <c r="F147" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="H147" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>В2Г</v>
+      </c>
+    </row>
+    <row r="148" s="46" customFormat="1" ht="57">
+      <c r="A148" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B148" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="C148" s="113" t="s">
+        <v>335</v>
+      </c>
+      <c r="D148" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="E148" s="44">
+        <v>45749</v>
+      </c>
+      <c r="F148" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G148" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="H148" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>В2</v>
+      </c>
+    </row>
+    <row r="149" s="46" customFormat="1" ht="57">
+      <c r="A149" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B149" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="C149" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="D149" s="42"/>
+      <c r="E149" s="44">
+        <v>45758</v>
+      </c>
+      <c r="F149" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G149" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H149" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="I149" s="46"/>
+    </row>
+    <row r="150" s="46" customFormat="1" ht="57">
+      <c r="A150" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B150" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="C150" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="D150" s="42"/>
+      <c r="E150" s="44">
+        <v>45758</v>
+      </c>
+      <c r="F150" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G150" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="H150" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>В2</v>
+      </c>
+      <c r="I150" s="46"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B151" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="C151" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="D151" s="41"/>
+      <c r="E151" s="44">
+        <v>45614</v>
+      </c>
+      <c r="F151" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H145" s="1" t="str">
+      <c r="H151" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D152" s="11"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="82"/>
+      <c r="G152" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H152" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D153" s="11"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="82"/>
+      <c r="G153" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H153" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="154" ht="28.5">
+      <c r="A154" s="114" t="s">
+        <v>341</v>
+      </c>
+      <c r="B154" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="C154" s="110" t="s">
+        <v>347</v>
+      </c>
+      <c r="D154" s="115" t="s">
+        <v>348</v>
+      </c>
+      <c r="E154" s="116">
+        <v>45645</v>
+      </c>
+      <c r="F154" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="118" t="s">
+        <v>13</v>
+      </c>
+      <c r="H154" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="155" ht="14.25">
+      <c r="A155" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="B155" s="119" t="s">
+        <v>349</v>
+      </c>
+      <c r="C155" s="119" t="s">
+        <v>350</v>
+      </c>
+      <c r="D155" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="E155" s="120">
+        <v>45757</v>
+      </c>
+      <c r="F155" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G155" s="121" t="s">
+        <v>13</v>
+      </c>
+      <c r="H155" s="1" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
@@ -6268,23 +6704,24 @@
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D8"/>
-    <hyperlink r:id="rId2" ref="D30"/>
-    <hyperlink r:id="rId3" ref="D65"/>
-    <hyperlink r:id="rId4" ref="D67"/>
-    <hyperlink r:id="rId5" ref="D68"/>
-    <hyperlink r:id="rId6" ref="D70"/>
-    <hyperlink r:id="rId7" ref="D88"/>
-    <hyperlink r:id="rId8" ref="D102"/>
-    <hyperlink r:id="rId9" ref="D106"/>
-    <hyperlink r:id="rId10" ref="D144" tooltip=""/>
+    <hyperlink r:id="rId2" ref="D34"/>
+    <hyperlink r:id="rId3" ref="D72"/>
+    <hyperlink r:id="rId4" ref="D74"/>
+    <hyperlink r:id="rId5" ref="D75"/>
+    <hyperlink r:id="rId6" ref="D77"/>
+    <hyperlink r:id="rId7" ref="D97"/>
+    <hyperlink r:id="rId8" ref="D111"/>
+    <hyperlink r:id="rId9" ref="D115"/>
+    <hyperlink r:id="rId10" ref="C148" tooltip="&quot;Поколение Python&quot;: курс для начинающих"/>
+    <hyperlink r:id="rId11" ref="D154" tooltip=""/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId13"/>
+  <legacyDrawing r:id="rId14"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6292,7 +6729,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
+    <sheetView topLeftCell="A6" workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6300,102 +6737,122 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="112" t="s">
-        <v>333</v>
+      <c r="A4" s="122" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="113" t="s">
-        <v>334</v>
+      <c r="A5" s="123" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="113" t="s">
-        <v>337</v>
+      <c r="A8" s="123" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="113" t="s">
-        <v>338</v>
+      <c r="A9" s="123" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" t="s">
-        <v>339</v>
+      <c r="A10" s="124" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" t="s">
-        <v>349</v>
+      <c r="A20" s="124" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="123" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="125" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -6421,8 +6878,8 @@
   </cols>
   <sheetData>
     <row r="2" ht="21">
-      <c r="B2" s="114" t="s">
-        <v>350</v>
+      <c r="B2" s="126" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="3" ht="14.25"/>
@@ -6431,10 +6888,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>351</v>
-      </c>
-      <c r="C5" s="115" t="s">
-        <v>352</v>
+        <v>377</v>
+      </c>
+      <c r="C5" s="127" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="6" ht="14.25">
@@ -6442,10 +6899,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="C6" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" ht="14.25">
@@ -6453,21 +6910,21 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" ht="285">
       <c r="A11" s="10" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" ht="14.25"/>
@@ -6489,8 +6946,8 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" ht="21">
-      <c r="B2" s="114" t="s">
-        <v>357</v>
+      <c r="B2" s="126" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/Текущие задачи АИС Статистика.xlsx
+++ b/Текущие задачи АИС Статистика.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Валерьян Васильев\OneDrive\Documents\GitHub\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="2910" yWindow="15" windowWidth="20955" windowHeight="9720"/>
   </bookViews>
   <sheets>
-    <sheet name="задачи" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="пометки на будущее" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Васильев" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Семенов" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="задачи" sheetId="1" r:id="rId1"/>
+    <sheet name="пометки на будущее" sheetId="2" r:id="rId2"/>
+    <sheet name="Васильев" sheetId="3" r:id="rId3"/>
+    <sheet name="Семенов" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={D598B5FC-9541-4D93-644B-B5F5B9B999FE}</author>
   </authors>
   <commentList>
-    <comment ref="D88" authorId="0" xr:uid="{D598B5FC-9541-4D93-644B-B5F5B9B999FE}">
+    <comment ref="D88" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -29,7 +35,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
           </rPr>
-          <t xml:space="preserve">Васильев Валерьян Анатольевич:</t>
+          <t>Васильев Валерьян Анатольевич:</t>
         </r>
         <r>
           <rPr>
@@ -56,12 +62,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
-  <si>
-    <t xml:space="preserve">Блок задач</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блок задач 2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="387">
+  <si>
+    <t>Блок задач</t>
+  </si>
+  <si>
+    <t>Блок задач 2</t>
   </si>
   <si>
     <t>Задача</t>
@@ -82,16 +88,16 @@
     <t>№В</t>
   </si>
   <si>
-    <t xml:space="preserve">Сборы данных</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Годовой сбор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подготовить файл по Страде 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ актуализировать изменения по формам ввода
+    <t>Сборы данных</t>
+  </si>
+  <si>
+    <t>Годовой сбор</t>
+  </si>
+  <si>
+    <t>Подготовить файл по Страде 2024</t>
+  </si>
+  <si>
+    <t>+ актуализировать изменения по формам ввода
 + актуализировать изменения по сводным отчетам</t>
   </si>
   <si>
@@ -101,38 +107,38 @@
     <t>Семенов</t>
   </si>
   <si>
-    <t xml:space="preserve">Учесть в годовом сборе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- договоренности по "Общим данным"
+    <t>Учесть в годовом сборе</t>
+  </si>
+  <si>
+    <t>- договоренности по "Общим данным"
 - внимание к запуску умной генерации ночных сводов</t>
   </si>
   <si>
-    <t xml:space="preserve">Васильев, Филимонов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Изменения в формах 070, 081, 140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">см. файл \Общая папка\Страда 2024\ОСД Формы и своды - статусы 2024.xlsx</t>
+    <t>Васильев, Филимонов</t>
+  </si>
+  <si>
+    <t>Изменения в формах 070, 081, 140</t>
+  </si>
+  <si>
+    <t>см. файл \Общая папка\Страда 2024\ОСД Формы и своды - статусы 2024.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Изменения в формах 010, 121 </t>
   </si>
   <si>
-    <t xml:space="preserve">- ТЗ подготовлены</t>
+    <t>- ТЗ подготовлены</t>
   </si>
   <si>
     <t>Филимонов</t>
   </si>
   <si>
-    <t xml:space="preserve">Открытие сбора по 010, 121, 130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Изменения в формах 040, 060, 091, 110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">все готовы, по 040 было много изменений</t>
+    <t>Открытие сбора по 010, 121, 130</t>
+  </si>
+  <si>
+    <t>Изменения в формах 040, 060, 091, 110</t>
+  </si>
+  <si>
+    <t>все готовы, по 040 было много изменений</t>
   </si>
   <si>
     <t>Васильев</t>
@@ -141,41 +147,41 @@
     <t xml:space="preserve">задача Жене по примечаниям в подвале формыhttp://jira.mkrf.local:8080/browse/RF-1556 </t>
   </si>
   <si>
-    <t xml:space="preserve">Открытие сбора по 070, 071, 081, 140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">настроить планировщик по 070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Запуск сводов 070, 071, 081, 140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">см. файл \Общая папка\Страда 2024\ОСД Формы и своды - статусы 2024.xlsx
+    <t>Открытие сбора по 070, 071, 081, 140</t>
+  </si>
+  <si>
+    <t>настроить планировщик по 070</t>
+  </si>
+  <si>
+    <t>Запуск сводов 070, 071, 081, 140</t>
+  </si>
+  <si>
+    <t>см. файл \Общая папка\Страда 2024\ОСД Формы и своды - статусы 2024.xlsx
 продлить на 2024 г., запустить ночную генерацию</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверить ошибку с детскими театрами в сводах 091-х</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лысякова утверждает ,что в Тип=Детские театры не все входят. Проверить старые ТЗ, чтото было про детские театры год или 2 назад</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новые своды по 040-1, 040-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">передал Лариной</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый свод 010-3</t>
+    <t>Проверить ошибку с детскими театрами в сводах 091-х</t>
+  </si>
+  <si>
+    <t>Лысякова утверждает ,что в Тип=Детские театры не все входят. Проверить старые ТЗ, чтото было про детские театры год или 2 назад</t>
+  </si>
+  <si>
+    <t>Новые своды по 040-1, 040-2</t>
+  </si>
+  <si>
+    <t>передал Лариной</t>
+  </si>
+  <si>
+    <t>Новый свод 010-3</t>
   </si>
   <si>
     <t>проверен</t>
   </si>
   <si>
-    <t xml:space="preserve">Добавление пункта по 89 регионам в фильтр по Субъектам РФ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">оставшиеся отчеты:
+    <t>Добавление пункта по 89 регионам в фильтр по Субъектам РФ</t>
+  </si>
+  <si>
+    <t>оставшиеся отчеты:
 241-1/2, 243-1/2/3/4-2023
 http://jira.mkrf.local:8080/browse/RF-1577</t>
   </si>
@@ -183,28 +189,28 @@
     <t>сделать</t>
   </si>
   <si>
-    <t xml:space="preserve">Филимонов, Семенов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Изменение формы 412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новая форма 345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новая форма 410.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Изменение 2-наука</t>
+    <t>Филимонов, Семенов</t>
+  </si>
+  <si>
+    <t>Изменение формы 412</t>
+  </si>
+  <si>
+    <t>Новая форма 345</t>
+  </si>
+  <si>
+    <t>Новая форма 410.1</t>
+  </si>
+  <si>
+    <t>Изменение 2-наука</t>
   </si>
   <si>
     <t>тестирование</t>
   </si>
   <si>
-    <t xml:space="preserve">ТЗ на свод 020-1-2024, 020-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Своды по ЕМИСС</t>
+    <t>ТЗ на свод 020-1-2024, 020-2</t>
+  </si>
+  <si>
+    <t>Своды по ЕМИСС</t>
   </si>
   <si>
     <r>
@@ -215,7 +221,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">54.04 театры 17.04
+      <t>54.04 театры 17.04
 54.06 концертные организации 17.04
 54.18 театры других ведомств 17.04
 2.11.26 (27)  Театры (в 54.04) 17.04
@@ -244,84 +250,84 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">П-4 с марта 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">формы ЗП с 1кв 2025 030, 031, 035, 210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">формы ЗП 035, 036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЗ сделаны, задачи на Мише</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Изменение форм (410-420) НП Культура за 2024 год</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Изменения в текущих фоормах или открытие новых форма за 2024 с новыми показателями. Изменение свода 420-3-2024.
+    <t>П-4 с марта 2025</t>
+  </si>
+  <si>
+    <t>формы ЗП с 1кв 2025 030, 031, 035, 210</t>
+  </si>
+  <si>
+    <t>формы ЗП 035, 036</t>
+  </si>
+  <si>
+    <t>ТЗ сделаны, задачи на Мише</t>
+  </si>
+  <si>
+    <t>Изменение форм (410-420) НП Культура за 2024 год</t>
+  </si>
+  <si>
+    <t>Изменения в текущих фоормах или открытие новых форма за 2024 с новыми показателями. Изменение свода 420-3-2024.
 Ждем информацию об изменениях по департаментам</t>
   </si>
   <si>
-    <t xml:space="preserve">НП "Эффективная экономика"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Форма 343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открытие формы 1-ОПИК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подготовка данных для технической формы, открытие 024, загрузка данных в тех форму, открытие 014, 023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Массовые рассылки об открытии сборов (упомянуть об ЭЦП)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">срок в рассылках 25.12, Гущина пришлет тексты
+    <t>НП "Эффективная экономика"</t>
+  </si>
+  <si>
+    <t>Форма 343</t>
+  </si>
+  <si>
+    <t>Открытие формы 1-ОПИК</t>
+  </si>
+  <si>
+    <t>Подготовка данных для технической формы, открытие 024, загрузка данных в тех форму, открытие 014, 023</t>
+  </si>
+  <si>
+    <t>Массовые рассылки об открытии сборов (упомянуть об ЭЦП)</t>
+  </si>
+  <si>
+    <t>срок в рассылках 25.12, Гущина пришлет тексты
 уточнить про техподдержку ЭЦП (stat@mkstat.ru) + инструкции ЭЦП</t>
   </si>
   <si>
-    <t xml:space="preserve">Филимонов, Васильев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Из генерации 070 убрать тип 45 адм структура (поле src_orgtype1_id &lt;&gt; 842374), добавить его в удаление 070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открытие сводных форм 243хх</t>
-  </si>
-  <si>
-    <t xml:space="preserve">По отмашке от Юдиной Т.С.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Настройка умной генерации свода 070-1-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">После открытия сводных форм 243хх</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открытие сводных форм 242хх</t>
-  </si>
-  <si>
-    <t xml:space="preserve">По отмашке Огородниковой. Написать ей письмо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Настройка умной генерации свода 060-1-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">После открытия сводных форм 242хх</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сверка ST3-DWH форм НК за 2024 год</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Филимонов, Васильев, Семенов</t>
+    <t>Филимонов, Васильев</t>
+  </si>
+  <si>
+    <t>Из генерации 070 убрать тип 45 адм структура (поле src_orgtype1_id &lt;&gt; 842374), добавить его в удаление 070</t>
+  </si>
+  <si>
+    <t>Открытие сводных форм 243хх</t>
+  </si>
+  <si>
+    <t>По отмашке от Юдиной Т.С.</t>
+  </si>
+  <si>
+    <t>Настройка умной генерации свода 070-1-2023</t>
+  </si>
+  <si>
+    <t>После открытия сводных форм 243хх</t>
+  </si>
+  <si>
+    <t>Открытие сводных форм 242хх</t>
+  </si>
+  <si>
+    <t>По отмашке Огородниковой. Написать ей письмо</t>
+  </si>
+  <si>
+    <t>Настройка умной генерации свода 060-1-2023</t>
+  </si>
+  <si>
+    <t>После открытия сводных форм 242хх</t>
+  </si>
+  <si>
+    <t>Сверка ST3-DWH форм НК за 2024 год</t>
+  </si>
+  <si>
+    <t>Филимонов, Васильев, Семенов</t>
   </si>
   <si>
     <t>Портал</t>
   </si>
   <si>
-    <t xml:space="preserve">Восстановление работы Push уведомлений портала https://stat.mkrf.ru/</t>
+    <t>Восстановление работы Push уведомлений портала https://stat.mkrf.ru/</t>
   </si>
   <si>
     <t>https://pm.mkrf.ru/projects/ais-statistika/work_packages/4930/activity</t>
@@ -330,36 +336,36 @@
     <t>Анкетолог</t>
   </si>
   <si>
-    <t xml:space="preserve">Рассылка на федералов от О. Ноянзиной</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ждем набор документов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Своды по ЮЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аналог сводов по первичке 060-1, 070-1, 011-1, но с агрегацией данных по ЮЛ
+    <t>Рассылка на федералов от О. Ноянзиной</t>
+  </si>
+  <si>
+    <t>ждем набор документов</t>
+  </si>
+  <si>
+    <t>Своды по ЮЛ</t>
+  </si>
+  <si>
+    <t>Аналог сводов по первичке 060-1, 070-1, 011-1, но с агрегацией данных по ЮЛ
 - подготовить ТЗ
 - разработать, протестировать</t>
   </si>
   <si>
-    <t xml:space="preserve">6-НК краткая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Загрузка организаций по Минсельхозу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кодировки копуков и юзеров согласованы с НВ
+    <t>6-НК краткая</t>
+  </si>
+  <si>
+    <t>Загрузка организаций по Минсельхозу</t>
+  </si>
+  <si>
+    <t>кодировки копуков и юзеров согласованы с НВ
 загрузить на тест.
 про 3хступенчатую стуктуру см. письмо НВ от Чт 13.02.2025 10:59
 есть письмо от Денищенко про загрузку копуков</t>
   </si>
   <si>
-    <t xml:space="preserve">Реализовать форму 6-НК(краткая)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кодировки копуков и юзеров согласованы с НВ
+    <t>Реализовать форму 6-НК(краткая)</t>
+  </si>
+  <si>
+    <t>кодировки копуков и юзеров согласованы с НВ
 - загрузил три копука, данные грязноваты - есть лишние переносы строк и тп
 про 3хступенчатую стуктуру ждем конца апреля,  см. письмо НВ от Чт 03.04.2025 16:05</t>
   </si>
@@ -367,41 +373,41 @@
     <t>Наццели</t>
   </si>
   <si>
-    <t xml:space="preserve">Добавить строки в  формы 431, 432, 433, 439 + 450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">формы от Лены получены, 450 тоже все.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добавить строку в  формы 435, 450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обновить своды 450-1/2/3 после изменений форм
+    <t>Добавить строки в  формы 431, 432, 433, 439 + 450</t>
+  </si>
+  <si>
+    <t>формы от Лены получены, 450 тоже все.</t>
+  </si>
+  <si>
+    <t>Добавить строку в  формы 435, 450</t>
+  </si>
+  <si>
+    <t>Обновить своды 450-1/2/3 после изменений форм
 + свод 450-4</t>
   </si>
   <si>
-    <t xml:space="preserve">форматирование сводов 450-1/2/3 - ГОТОВО
+    <t>форматирование сводов 450-1/2/3 - ГОТОВО
 свод 450-4-2025: ГОТОВО</t>
   </si>
   <si>
-    <t xml:space="preserve">Обновить своды 450-1 после изменений форм 435 и 450
+    <t>Обновить своды 450-1 после изменений форм 435 и 450
 + свод 450-4</t>
   </si>
   <si>
-    <t xml:space="preserve">жду шаблоны 450-1 - свод готов 
+    <t>жду шаблоны 450-1 - свод готов 
 + осталось, чтобы класс 450-1 был через JAVA
 + 450-4, готова
 - переместить на ДВХ, после ускорения</t>
   </si>
   <si>
-    <t xml:space="preserve">из генерации 432 убрать тип 45 адм структура (поле src_orgtype1_id &lt;&gt; 842374). Также прописать в удаление.
+    <t>из генерации 432 убрать тип 45 адм структура (поле src_orgtype1_id &lt;&gt; 842374). Также прописать в удаление.
 учесть в генерации и удалении, что id форм поменялся</t>
   </si>
   <si>
-    <t xml:space="preserve">в создании сделано, добавить в удаление и еще проверить Планировщик. В Планировщике нет новых форм - надо было просто перезагрузить</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Генерация доков за месяц. После генерации поправить своды, поправить Планировщик, сверить сгенерированные доки с прошлым периодом</t>
+    <t>в создании сделано, добавить в удаление и еще проверить Планировщик. В Планировщике нет новых форм - надо было просто перезагрузить</t>
+  </si>
+  <si>
+    <t>Генерация доков за месяц. После генерации поправить своды, поправить Планировщик, сверить сгенерированные доки с прошлым периодом</t>
   </si>
   <si>
     <t>20.ХХ</t>
@@ -410,27 +416,27 @@
     <t>ОНП</t>
   </si>
   <si>
-    <t xml:space="preserve">Удовлеторительность состояния зданий по опорным населенным пунктам (библиотеки и КДУ)</t>
+    <t>Удовлеторительность состояния зданий по опорным населенным пунктам (библиотеки и КДУ)</t>
   </si>
   <si>
     <t xml:space="preserve">таблица ОКТМО ОНП
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Изменение в своде Выгрузка по организациям (боевой сервер)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Удовлеторительность состояния зданий по опорным населенным пунктам (библиотеки и КДУ) - ОЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сводный отчет по удовлетворительности состояния зданий: за 2019 для ОЛ
+    <t>Изменение в своде Выгрузка по организациям (боевой сервер)</t>
+  </si>
+  <si>
+    <t>Удовлеторительность состояния зданий по опорным населенным пунктам (библиотеки и КДУ) - ОЛ</t>
+  </si>
+  <si>
+    <t>сводный отчет по удовлетворительности состояния зданий: за 2019 для ОЛ
 Правка данных, генерация отчетов, рассылки</t>
   </si>
   <si>
-    <t xml:space="preserve">Удовлеторительность состояния зданий по опорным населенным пунктам (библиотеки и КДУ) - ОС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сводный отчет по удовлетворительности состояния зданий: за 2019 по регионам для ОС</t>
+    <t>Удовлеторительность состояния зданий по опорным населенным пунктам (библиотеки и КДУ) - ОС</t>
+  </si>
+  <si>
+    <t>сводный отчет по удовлетворительности состояния зданий: за 2019 по регионам для ОС</t>
   </si>
   <si>
     <t xml:space="preserve"> + сводные отчеты по удовлетворительности состояния зданий: за 2024 для ОЛ и ОС
@@ -441,19 +447,19 @@
     <t>Обеспеченность</t>
   </si>
   <si>
-    <t xml:space="preserve">Обеспеченность учреждениями культуры в разрезе населенных пунктов (4 кв. 2024)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">см. общий чат:
+    <t>Обеспеченность учреждениями культуры в разрезе населенных пунктов (4 кв. 2024)</t>
+  </si>
+  <si>
+    <t>см. общий чат:
 ? утверждение методики расчета
 Разработать своды по нормативам и факту с 4 кв. 2024 (+ для регионов).
 доступ Минэк</t>
   </si>
   <si>
-    <t xml:space="preserve">Обеспеченность учреждениями культуры в разрезе населенных пунктов (с 1 кв. 2025)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">по новой методике - отложено
+    <t>Обеспеченность учреждениями культуры в разрезе населенных пунктов (с 1 кв. 2025)</t>
+  </si>
+  <si>
+    <t>по новой методике - отложено
 1кв20225 загружен по старой схеме
 доступ Минэк</t>
   </si>
@@ -461,165 +467,165 @@
     <t>Удовлетворенность</t>
   </si>
   <si>
-    <t xml:space="preserve">Удовлетворенность деятельностью УК (Анкетолог)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разработать своды с января 2024 (+ для регионов).
+    <t>Удовлетворенность деятельностью УК (Анкетолог)</t>
+  </si>
+  <si>
+    <t>Разработать своды с января 2024 (+ для регионов).
 ! Нужен доработанный шаблон свода и данные.</t>
   </si>
   <si>
-    <t xml:space="preserve">Мониторинг Пушкинской карты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Интеграция с PRO.Культура.РФ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Образовательные организации и флаг нахождения в ПК
+    <t>Мониторинг Пушкинской карты</t>
+  </si>
+  <si>
+    <t>Интеграция с PRO.Культура.РФ</t>
+  </si>
+  <si>
+    <t>Образовательные организации и флаг нахождения в ПК
 - сверка списков организаций в PRO.Культура.РФ в АИС "Статистика"
 - работа с неактуальными головными организациями
 - нужен итоговый список организаций для мониторинга ПК</t>
   </si>
   <si>
-    <t xml:space="preserve">Формы ввода (630-636)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- ТЗ на формы ввода
+    <t>Формы ввода (630-636)</t>
+  </si>
+  <si>
+    <t>- ТЗ на формы ввода
 - тестирование
 - открытие сборов</t>
   </si>
   <si>
-    <t xml:space="preserve">Сводные отчеты (630-1,2,3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- ТЗ на своды</t>
+    <t>Сводные отчеты (630-1,2,3)</t>
+  </si>
+  <si>
+    <t>- ТЗ на своды</t>
   </si>
   <si>
     <t>Документация</t>
   </si>
   <si>
-    <t xml:space="preserve">Контакты ОО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выкладывать контакты ОО на страницу авторизации и в общую папку</t>
-  </si>
-  <si>
-    <t xml:space="preserve">на пост. основе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Семенов, Филимонов, Васильев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Внешние ИС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Региональные ИС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ответ Барсу (a.aleeva &lt;a.aleeva@bars.group&gt; на stat2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- КДМТП
+    <t>Контакты ОО</t>
+  </si>
+  <si>
+    <t>Выкладывать контакты ОО на страницу авторизации и в общую папку</t>
+  </si>
+  <si>
+    <t>на пост. основе</t>
+  </si>
+  <si>
+    <t>Семенов, Филимонов, Васильев</t>
+  </si>
+  <si>
+    <t>Внешние ИС</t>
+  </si>
+  <si>
+    <t>Региональные ИС</t>
+  </si>
+  <si>
+    <t>Ответ Барсу (a.aleeva &lt;a.aleeva@bars.group&gt; на stat2)</t>
+  </si>
+  <si>
+    <t>- КДМТП
 - изменения ФЛК в формах НК (в ТЗ на 070, 081, 140 выделены бирюзовым)
 - дослать изменения в ФЛК по формам 040, 070, 110</t>
   </si>
   <si>
-    <t xml:space="preserve">Открытые данные</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Загрузить данные за 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Семенов, Васильев, Филимонов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЦАП Росстата</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Загрузка данных за ноябрь 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">учесть правки в прошлых периодах
+    <t>Открытые данные</t>
+  </si>
+  <si>
+    <t>Загрузить данные за 2024</t>
+  </si>
+  <si>
+    <t>Семенов, Васильев, Филимонов</t>
+  </si>
+  <si>
+    <t>ЦАП Росстата</t>
+  </si>
+  <si>
+    <t>Загрузка данных за ноябрь 2024</t>
+  </si>
+  <si>
+    <t>учесть правки в прошлых периодах
 + показатели НП загружены и рассчитаны</t>
   </si>
   <si>
-    <t xml:space="preserve">Интеграция с ЦАП Росстата</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- официальное письмо с вопросами
+    <t>Интеграция с ЦАП Росстата</t>
+  </si>
+  <si>
+    <t>- официальное письмо с вопросами
 - техническая реализация</t>
   </si>
   <si>
-    <t xml:space="preserve">Семенов, Васильев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Загрузка данных за декабрь 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">учесть правки в прошлых периодах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Загрузка данных за январь 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">проверить выгрузку за 2025 год. Отредактировал запрос в БД по 1-К</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИСМНП ЦИТИС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Загрузка данных за 4 квартал 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">учесть правки в прошлых периодах + правку по концерту 068658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Семенов, Филимонов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Правка расчета показателя 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">учесть возникновение ликвидированных/неотчитавшихся организаций (нет документа, документ в статусе X) в 430.4 в накопительных показателях 12.х</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Учесть изменения в НП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- изменения в 43x
+    <t>Семенов, Васильев</t>
+  </si>
+  <si>
+    <t>Загрузка данных за декабрь 2024</t>
+  </si>
+  <si>
+    <t>учесть правки в прошлых периодах</t>
+  </si>
+  <si>
+    <t>Загрузка данных за январь 2025</t>
+  </si>
+  <si>
+    <t>проверить выгрузку за 2025 год. Отредактировал запрос в БД по 1-К</t>
+  </si>
+  <si>
+    <t>ИСМНП ЦИТИС</t>
+  </si>
+  <si>
+    <t>Загрузка данных за 4 квартал 2024</t>
+  </si>
+  <si>
+    <t>учесть правки в прошлых периодах + правку по концерту 068658</t>
+  </si>
+  <si>
+    <t>Семенов, Филимонов</t>
+  </si>
+  <si>
+    <t>Правка расчета показателя 12</t>
+  </si>
+  <si>
+    <t>учесть возникновение ликвидированных/неотчитавшихся организаций (нет документа, документ в статусе X) в 430.4 в накопительных показателях 12.х</t>
+  </si>
+  <si>
+    <t>Учесть изменения в НП</t>
+  </si>
+  <si>
+    <t>- изменения в 43x
 - изменения в НП</t>
   </si>
   <si>
     <t>отменено</t>
   </si>
   <si>
-    <t xml:space="preserve">Инструкция в Confluence по подготовке и загрузке данных</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕГРЮЛ ФНС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Уточнить возможность автоматизированно подгружать атрибуты организаций в Статистику</t>
-  </si>
-  <si>
-    <t xml:space="preserve">в 12:30 созвон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕСИА Минцифры</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вход через Госуслуги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">согласовать с ОС</t>
+    <t>Инструкция в Confluence по подготовке и загрузке данных</t>
+  </si>
+  <si>
+    <t>ЕГРЮЛ ФНС</t>
+  </si>
+  <si>
+    <t>Уточнить возможность автоматизированно подгружать атрибуты организаций в Статистику</t>
+  </si>
+  <si>
+    <t>в 12:30 созвон</t>
+  </si>
+  <si>
+    <t>ЕСИА Минцифры</t>
+  </si>
+  <si>
+    <t>Вход через Госуслуги</t>
+  </si>
+  <si>
+    <t>согласовать с ОС</t>
   </si>
   <si>
     <t>РГБ</t>
   </si>
   <si>
-    <t xml:space="preserve">Интеграция с НКП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ ответы на вопросы
+    <t>Интеграция с НКП</t>
+  </si>
+  <si>
+    <t>+ ответы на вопросы
 + согласовать инструкцию по НКП
 + рассылка на ОО (10 марта - окончания сбора, 20 марта - можно менять справочник библиотек)
 + выложить файл с ОО после актуализации
@@ -629,18 +635,18 @@
     <t>Библио#21</t>
   </si>
   <si>
-    <t xml:space="preserve">Интеграция с Библио#21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- расчет 6-НК в Библио#21
+    <t>Интеграция с Библио#21</t>
+  </si>
+  <si>
+    <t>- расчет 6-НК в Библио#21
 - согласование БП интеграции Статистики и Библио
 - техническая реализация интеграции Статистики и Библио</t>
   </si>
   <si>
-    <t xml:space="preserve">АС "Музей"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Интеграция с АС "Музей"</t>
+    <t>АС "Музей"</t>
+  </si>
+  <si>
+    <t>Интеграция с АС "Музей"</t>
   </si>
   <si>
     <t>Разработка</t>
@@ -649,31 +655,31 @@
     <t>Фронтенд</t>
   </si>
   <si>
-    <t xml:space="preserve">Ограничение видов организаций у иных для ОО по биб/КДУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://jira.mkrf.local:8080/browse/RF-661 (см. последний комментарий)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Убрать доступ федералов к разделу "Оценка работы ОК"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://jira.mkrf.local:8080/browse/RF-1546 (последний коммент)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Адаптировать окно с QR-кодом под малую диагональ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Примечание в подвале формы  040</t>
+    <t>Ограничение видов организаций у иных для ОО по биб/КДУ</t>
+  </si>
+  <si>
+    <t>http://jira.mkrf.local:8080/browse/RF-661 (см. последний комментарий)</t>
+  </si>
+  <si>
+    <t>Убрать доступ федералов к разделу "Оценка работы ОК"</t>
+  </si>
+  <si>
+    <t>http://jira.mkrf.local:8080/browse/RF-1546 (последний коммент)</t>
+  </si>
+  <si>
+    <t>Адаптировать окно с QR-кодом под малую диагональ</t>
+  </si>
+  <si>
+    <t>Примечание в подвале формы  040</t>
   </si>
   <si>
     <t xml:space="preserve">http://jira.mkrf.local:8080/browse/RF-1556 </t>
   </si>
   <si>
-    <t xml:space="preserve">Усиление фронтенд-разработки со стороны Старкова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ доп. время Соболева (до конца года + январь 100%)
+    <t>Усиление фронтенд-разработки со стороны Старкова</t>
+  </si>
+  <si>
+    <t>+ доп. время Соболева (до конца года + январь 100%)
 + срочный ТД с Соболевым на февраль
 + разработчик на место Бояркина (Эмиль Новодворский)
 - 2-й фронтендер на время перехода на ReactJS</t>
@@ -682,32 +688,32 @@
     <t>Бэкенд</t>
   </si>
   <si>
-    <t xml:space="preserve">Доработка функции утверждения в statadmin</t>
+    <t>Доработка функции утверждения в statadmin</t>
   </si>
   <si>
     <t>http://192.168.51.5/yury.petrov/statadmin/-/issues/1</t>
   </si>
   <si>
-    <t xml:space="preserve">Задачи по модулю регистрации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новые поля в справочнике организаций (hsource): http://192.168.51.5/yury.petrov/STAT3-Collector/-/issues/15, п.2
+    <t>Задачи по модулю регистрации</t>
+  </si>
+  <si>
+    <t>Новые поля в справочнике организаций (hsource): http://192.168.51.5/yury.petrov/STAT3-Collector/-/issues/15, п.2
 Функционал backend по работе с паролями (модуль регистрации): http://192.168.51.5/yury.petrov/STAT3-Collector/-/issues/8, см. последний коммент.
 Функционал по пользователям (модуль регистрации): http://192.168.51.5/yury.petrov/STAT3-Collector/-/issues/16
 Функционал по организациям (модуль регистрации): http://192.168.51.5/yury.petrov/STAT3-Collector/-/issues/18
 Автоматическое изменение поля isdeleted у пользователей: http://192.168.51.5/yury.petrov/STAT3-Collector/-/issues/17</t>
   </si>
   <si>
-    <t xml:space="preserve">Чистка customobjects через statadmin в ST3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Юра должен в выхи почистить</t>
+    <t>Чистка customobjects через statadmin в ST3</t>
+  </si>
+  <si>
+    <t>Юра должен в выхи почистить</t>
   </si>
   <si>
     <t>Фронтенд/бэкенд</t>
   </si>
   <si>
-    <t xml:space="preserve">ТЗ на модуль регистрации пользователей</t>
+    <t>ТЗ на модуль регистрации пользователей</t>
   </si>
   <si>
     <r>
@@ -729,7 +735,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Доработка справочника организаций:
+      <t>Доработка справочника организаций:
 http://jira.mkrf.local:8080/browse/RF-671, последний коммент</t>
     </r>
     <r>
@@ -751,32 +757,32 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Удаление customobjects при удалении документа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Юра на бэке (пока на тесте и на препроде) //ГОТОВО
+    <t>Удаление customobjects при удалении документа</t>
+  </si>
+  <si>
+    <t>- Юра на бэке (пока на тесте и на препроде) //ГОТОВО
 - Петр в обработчике. //ГОТОВО
 - почистить cusobj на бою и в двх, после наката на бой от Юры</t>
   </si>
   <si>
-    <t xml:space="preserve">после наката модуля регистрации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Васильев, Семенов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Функционал по работе с МЧД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ инфа от Старкова (Артем)
+    <t>после наката модуля регистрации</t>
+  </si>
+  <si>
+    <t>Васильев, Семенов</t>
+  </si>
+  <si>
+    <t>Функционал по работе с МЧД</t>
+  </si>
+  <si>
+    <t>+ инфа от Старкова (Артем)
 + инфа от кураторов (Сергей)
 ? письмо в ФНС, доступ к реестру МЧД, лучшие практики работы с МЧД и ЭЦП в ИС</t>
   </si>
   <si>
-    <t xml:space="preserve">Решение вопросов по функционалу и производительности Анкетолога, закупки лицензии</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ настройка параметров MySQL со Старковым, его разрабами, Айратом (-)
+    <t>Решение вопросов по функционалу и производительности Анкетолога, закупки лицензии</t>
+  </si>
+  <si>
+    <t>+ настройка параметров MySQL со Старковым, его разрабами, Айратом (-)
 + ожидание ответа от Анкетолога
 + написание SQL-запроса и инструкции выгрузки данных из Анкетолога
 + правка в SQL-выгрузках
@@ -785,267 +791,267 @@
 -- закупка лицензии на Анкетолог</t>
   </si>
   <si>
-    <t xml:space="preserve">Семенов, Старков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фронтенд (ReactJS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Список задач по реализации на ReactJS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ упростил и положил в облако в эту папку
+    <t>Семенов, Старков</t>
+  </si>
+  <si>
+    <t>Фронтенд (ReactJS)</t>
+  </si>
+  <si>
+    <t>Список задач по реализации на ReactJS</t>
+  </si>
+  <si>
+    <t>+ упростил и положил в облако в эту папку
 + Бояркина не привлекаем
 - обновить список непосредственно перед разработкой ReactJS</t>
   </si>
   <si>
-    <t xml:space="preserve">Доработка окружения ReactJS, тестирование</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый логер/обр-к/план-к</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фильтрация событий в логере, доработка обработки событий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://192.168.51.5/petr.mikhailin/event-handler-v2/-/issues/4  
+    <t>Доработка окружения ReactJS, тестирование</t>
+  </si>
+  <si>
+    <t>Новый логер/обр-к/план-к</t>
+  </si>
+  <si>
+    <t>Фильтрация событий в логере, доработка обработки событий</t>
+  </si>
+  <si>
+    <t>http://192.168.51.5/petr.mikhailin/event-handler-v2/-/issues/4  
 http://192.168.51.5/petr.mikhailin/event-handler-v2/-/issues/3</t>
   </si>
   <si>
-    <t xml:space="preserve">Запуск на боевом окружении в параллель со старыми</t>
-  </si>
-  <si>
-    <t xml:space="preserve">новый логгер и обработчик запущены. Проблемы:
+    <t>Запуск на боевом окружении в параллель со старыми</t>
+  </si>
+  <si>
+    <t>новый логгер и обработчик запущены. Проблемы:
 - выявить расхождения в логгерах. Проверил за 31.03 было 200тыс событий и расхождений очень мало, причем в + к новому логеру
 - пока ДВХ не проверяем, после настройки от Юры и Сергея на 58 или 143
 - проверить новый планировщик?
 - середина апреля - переход</t>
   </si>
   <si>
-    <t xml:space="preserve">Старый логгер и обработчик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Посчитать Юре пики по событиям, лучше по секундам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПИКи посчитал, файл направил.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Посчитать пики с НГ по дням, выявить где были максимумы, временные промежутки по минутам и дать Сергею для сетевиков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">выявил дни с пиковыми значениями</t>
+    <t>Старый логгер и обработчик</t>
+  </si>
+  <si>
+    <t>Посчитать Юре пики по событиям, лучше по секундам</t>
+  </si>
+  <si>
+    <t>ПИКи посчитал, файл направил.</t>
+  </si>
+  <si>
+    <t>Посчитать пики с НГ по дням, выявить где были максимумы, временные промежутки по минутам и дать Сергею для сетевиков</t>
+  </si>
+  <si>
+    <t>выявил дни с пиковыми значениями</t>
   </si>
   <si>
     <t>DWH</t>
   </si>
   <si>
-    <t xml:space="preserve">450-4-2025 запустить на DWH и посмотреть тайминги.
+    <t>450-4-2025 запустить на DWH и посмотреть тайминги.
 040-1 тоже ускорен</t>
   </si>
   <si>
-    <t xml:space="preserve">проверили с Сергеем. Вывод: запрос по инедксу pgr+year работает долго, тк выборка получается большой.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Актуализация контактов интеграторщиков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Запуск апробации нового API на препрод-окружении</t>
-  </si>
-  <si>
-    <t xml:space="preserve">подготовить материалы к рассылке на регионы, согласовать с НВ.
+    <t>проверили с Сергеем. Вывод: запрос по инедксу pgr+year работает долго, тк выборка получается большой.</t>
+  </si>
+  <si>
+    <t>Новый API</t>
+  </si>
+  <si>
+    <t>Актуализация контактов интеграторщиков</t>
+  </si>
+  <si>
+    <t>Запуск апробации нового API на препрод-окружении</t>
+  </si>
+  <si>
+    <t>подготовить материалы к рассылке на регионы, согласовать с НВ.
 Уточнить у Юры про endpoint (какие точки входа у боя и препрода. Мы на бою хотели ввести новую точку входа, а на препроде будет два)</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">сделать после задачи сверху</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Особые права через конфиг на бою</t>
-  </si>
-  <si>
-    <t xml:space="preserve">в файл approve.js Добавить исключения для супервизора или группу пользователя. Поставил задачу Юре в гите
+    <t>сделать после задачи сверху</t>
+  </si>
+  <si>
+    <t>Особые права через конфиг на бою</t>
+  </si>
+  <si>
+    <t>в файл approve.js Добавить исключения для супервизора или группу пользователя. Поставил задачу Юре в гите
 http://192.168.51.5/yury.petrov/STAT3-FLKScriptLib/-/issues/1
 загнал в конфлю, сюда http://confluence.mkrf.local:8090/pages/viewpage.action?pageId=9502984</t>
   </si>
   <si>
-    <t xml:space="preserve">в статадмин добавить проверку поля src_fiastreet_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Передать Юре список новых или измененных полей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">старый обработчик по копукам не все поля переносит, учесть эти проблемы в новом обработчике</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- выяснить какие поля не обрабатываются
+    <t>в статадмин добавить проверку поля src_fiastreet_id</t>
+  </si>
+  <si>
+    <t>Передать Юре список новых или измененных полей</t>
+  </si>
+  <si>
+    <t>старый обработчик по копукам не все поля переносит, учесть эти проблемы в новом обработчике</t>
+  </si>
+  <si>
+    <t>- выяснить какие поля не обрабатываются
 - поставить задачу Петру в Гите</t>
   </si>
   <si>
-    <t xml:space="preserve">Новый Генератор отчетов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Актуализировать ТЗ, разработать, фронт на ReactJS</t>
+    <t>Новый Генератор отчетов</t>
+  </si>
+  <si>
+    <t>Актуализировать ТЗ, разработать, фронт на ReactJS</t>
   </si>
   <si>
     <t>http://jira.mkrf.local:8080/browse/RF-686</t>
   </si>
   <si>
-    <t xml:space="preserve">Бэкенд (микросервисы)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доработка и тестирование функционала</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Брать события из Kafka, складывать как и ранее в таблицу cbentity_statlog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Планирование, отчеты, документация</t>
+    <t>Бэкенд (микросервисы)</t>
+  </si>
+  <si>
+    <t>Доработка и тестирование функционала</t>
+  </si>
+  <si>
+    <t>Брать события из Kafka, складывать как и ранее в таблицу cbentity_statlog</t>
+  </si>
+  <si>
+    <t>Планирование, отчеты, документация</t>
   </si>
   <si>
     <t>ОТРС</t>
   </si>
   <si>
-    <t xml:space="preserve">Работа с тикетами в ОТРС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Изменения в очередях, агентах, типах обращений</t>
-  </si>
-  <si>
-    <t xml:space="preserve">тип обращения для интеграторщиков + изменения у НВ и ОЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добавить очередь I10 «ФП Пушкинская карта»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">написал письмо Гриценко, в ПМ сделал коммент, Гриценко взял в работу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ведение задач</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ведение задач в Jira, GitLab и Open project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">см. письмо от Вт 06.08.2024 15:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дать замечания по РП и регламенту работы в Open project</t>
+    <t>Работа с тикетами в ОТРС</t>
+  </si>
+  <si>
+    <t>Изменения в очередях, агентах, типах обращений</t>
+  </si>
+  <si>
+    <t>тип обращения для интеграторщиков + изменения у НВ и ОЕ</t>
+  </si>
+  <si>
+    <t>Добавить очередь I10 «ФП Пушкинская карта»</t>
+  </si>
+  <si>
+    <t>написал письмо Гриценко, в ПМ сделал коммент, Гриценко взял в работу</t>
+  </si>
+  <si>
+    <t>Ведение задач</t>
+  </si>
+  <si>
+    <t>Ведение задач в Jira, GitLab и Open project</t>
+  </si>
+  <si>
+    <t>см. письмо от Вт 06.08.2024 15:46</t>
+  </si>
+  <si>
+    <t>Дать замечания по РП и регламенту работы в Open project</t>
   </si>
   <si>
     <t>Wiki</t>
   </si>
   <si>
-    <t xml:space="preserve">Обновление страниц Wiki Confluence и Open project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Описание логики работы редактора организаций</t>
-  </si>
-  <si>
-    <t xml:space="preserve">внести правки по итогам ВКС. Стандартизировать записи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обновление руководств (ежегодно)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ожидание обратной связи от ОС по РП -правки РП
+    <t>Обновление страниц Wiki Confluence и Open project</t>
+  </si>
+  <si>
+    <t>Описание логики работы редактора организаций</t>
+  </si>
+  <si>
+    <t>внести правки по итогам ВКС. Стандартизировать записи</t>
+  </si>
+  <si>
+    <t>Обновление руководств (ежегодно)</t>
+  </si>
+  <si>
+    <t>Ожидание обратной связи от ОС по РП -правки РП
 руководство ОО - готово
 обновить руководство ЭП
 обновить faq</t>
   </si>
   <si>
-    <t xml:space="preserve">Филимонов, Семенов, Васильев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Журналы ПИК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подготовить журнал ПИК за 4 квартал 2024 года</t>
+    <t>Филимонов, Семенов, Васильев</t>
+  </si>
+  <si>
+    <t>Журналы ПИК</t>
+  </si>
+  <si>
+    <t>Подготовить журнал ПИК за 4 квартал 2024 года</t>
   </si>
   <si>
     <t>ВПЦТ</t>
   </si>
   <si>
-    <t xml:space="preserve">Справка для отмены показателя по ФЛК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Промежуточный отчет за 2024 год</t>
-  </si>
-  <si>
-    <t xml:space="preserve">План работ на развитие</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обновление плана работ на развитие (ежеквартально)</t>
+    <t>Справка для отмены показателя по ФЛК</t>
+  </si>
+  <si>
+    <t>Промежуточный отчет за 2024 год</t>
+  </si>
+  <si>
+    <t>План работ на развитие</t>
+  </si>
+  <si>
+    <t>Обновление плана работ на развитие (ежеквартально)</t>
   </si>
   <si>
     <t>https://oblako.givc.ru/s/rog3w2E4t2Y4qSf</t>
   </si>
   <si>
-    <t xml:space="preserve">Заявка для ПЭО (фин. план)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">План мероприятий 2025 (ежегодно)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">даны комментарии Петровой С.Б.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отчет за год</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Показатели ВПЦТ, задачи по Плану мероприятий, иные показатели (ежегодно)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обращения от МК РФ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подготовка регламента взаимодействия с МК РФ по данным</t>
-  </si>
-  <si>
-    <t xml:space="preserve">регламент, согласование, форма обращения на портале МК РФ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сервера, накаты, ПО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Накаты на бой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фильтрация событий в логере</t>
+    <t>Заявка для ПЭО (фин. план)</t>
+  </si>
+  <si>
+    <t>План мероприятий 2025 (ежегодно)</t>
+  </si>
+  <si>
+    <t>даны комментарии Петровой С.Б.</t>
+  </si>
+  <si>
+    <t>Отчет за год</t>
+  </si>
+  <si>
+    <t>Показатели ВПЦТ, задачи по Плану мероприятий, иные показатели (ежегодно)</t>
+  </si>
+  <si>
+    <t>Обращения от МК РФ</t>
+  </si>
+  <si>
+    <t>Подготовка регламента взаимодействия с МК РФ по данным</t>
+  </si>
+  <si>
+    <t>регламент, согласование, форма обращения на портале МК РФ</t>
+  </si>
+  <si>
+    <t>Сервера, накаты, ПО</t>
+  </si>
+  <si>
+    <t>Накаты на бой</t>
+  </si>
+  <si>
+    <t>Фильтрация событий в логере</t>
   </si>
   <si>
     <t>http://192.168.51.5/nikita.drozdov/event-handler/-/issues/2</t>
   </si>
   <si>
-    <t xml:space="preserve">Тех. обсуживание</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чистка старых сводов в Генераторе отчетов (ежегодно)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сделано
+    <t>Тех. обсуживание</t>
+  </si>
+  <si>
+    <t>Чистка старых сводов в Генераторе отчетов (ежегодно)</t>
+  </si>
+  <si>
+    <t>сделано
 http://confluence.mkrf.local:8090/pages/viewpage.action?pageId=10585564</t>
   </si>
   <si>
-    <t xml:space="preserve">Васильев, Семенов, Филимонов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тех. обслуживание</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чистка customobjects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ ST3
+    <t>Васильев, Семенов, Филимонов</t>
+  </si>
+  <si>
+    <t>Тех. обслуживание</t>
+  </si>
+  <si>
+    <t>Чистка customobjects</t>
+  </si>
+  <si>
+    <t>+ ST3
 + DWH</t>
   </si>
   <si>
-    <t xml:space="preserve">Обслуживание боевого окружения (ежеквартально)</t>
+    <t>Обслуживание боевого окружения (ежеквартально)</t>
   </si>
   <si>
     <r>
@@ -1065,7 +1071,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">записей в логгере и обработчике,</t>
+      <t>записей в логгере и обработчике,</t>
     </r>
     <r>
       <rPr>
@@ -1080,333 +1086,333 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Сверка и удаление доков из НЦ и ДШИ.Дети (ежемесячно)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сделано 24.01, удалены доки за 10.24 и 11.24. Следующая чистка в марте</t>
-  </si>
-  <si>
-    <t xml:space="preserve">на пост. основе 17.ХХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Процедура удаления пользователей (ежегодно)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">боевое окружение
+    <t>Сверка и удаление доков из НЦ и ДШИ.Дети (ежемесячно)</t>
+  </si>
+  <si>
+    <t>сделано 24.01, удалены доки за 10.24 и 11.24. Следующая чистка в марте</t>
+  </si>
+  <si>
+    <t>на пост. основе 17.ХХ</t>
+  </si>
+  <si>
+    <t>Процедура удаления пользователей (ежегодно)</t>
+  </si>
+  <si>
+    <t>боевое окружение
 http://confluence.mkrf.local:8090/pages/viewpage.action?pageId=10585561</t>
   </si>
   <si>
-    <t xml:space="preserve">почистить доки за 2021 год (проблемы с 602 за 2кв)
+    <t>почистить доки за 2021 год (проблемы с 602 за 2кв)
 подготовил файл с ответственными за сверку по своим формам</t>
   </si>
   <si>
-    <t xml:space="preserve">Покупка лицензий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Закупка лицензий CryptoPro JCP 2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">для интеграции с ЕСИА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наращивание мощностей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сервера 192.168.50.65, 10.102.209.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Написать заявку, проконтролировать результат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый сервер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тестовый сервер на Astra для нового бэкенда на Java 17, докерах и микросервисах</t>
+    <t>Покупка лицензий</t>
+  </si>
+  <si>
+    <t>Закупка лицензий CryptoPro JCP 2.0</t>
+  </si>
+  <si>
+    <t>для интеграции с ЕСИА</t>
+  </si>
+  <si>
+    <t>Наращивание мощностей</t>
+  </si>
+  <si>
+    <t>Сервера 192.168.50.65, 10.102.209.93</t>
+  </si>
+  <si>
+    <t>Написать заявку, проконтролировать результат</t>
+  </si>
+  <si>
+    <t>Новый сервер</t>
+  </si>
+  <si>
+    <t>Тестовый сервер на Astra для нового бэкенда на Java 17, докерах и микросервисах</t>
   </si>
   <si>
     <t>192.168.50.63</t>
   </si>
   <si>
-    <t xml:space="preserve">Изменения в серверах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Объединение тестовых серверов на Astra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.50.42 и 192.168.50.43</t>
+    <t>Изменения в серверах</t>
+  </si>
+  <si>
+    <t>Объединение тестовых серверов на Astra</t>
+  </si>
+  <si>
+    <t>192.168.50.42 и 192.168.50.43</t>
   </si>
   <si>
     <t>Импортозамещение</t>
   </si>
   <si>
-    <t xml:space="preserve">Перевод серверов на Astra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОС Astra Linux Server, СУБД Tantor
+    <t>Перевод серверов на Astra</t>
+  </si>
+  <si>
+    <t>ОС Astra Linux Server, СУБД Tantor
 подготовить план
 запланировать переход, выделить сервера, нарастить производительность
 провести ревизию ПО и выделенных мощностей</t>
   </si>
   <si>
-    <t xml:space="preserve">Защитный контур</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аттестация защитного контура</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- ответ Прасолову
+    <t>Защитный контур</t>
+  </si>
+  <si>
+    <t>Аттестация защитного контура</t>
+  </si>
+  <si>
+    <t>- ответ Прасолову
 после перевода серверов на Astra 19-20.04</t>
   </si>
   <si>
-    <t xml:space="preserve">Технические работы по развитию Статистики, наращивание серверов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- подготовить план
+    <t>Технические работы по развитию Статистики, наращивание серверов</t>
+  </si>
+  <si>
+    <t>- подготовить план
 - определить целевые показатели производительности
 - запланировать сервера, наращивание мощностей
 - запланировать развитие ПО</t>
   </si>
   <si>
-    <t xml:space="preserve">Запросы ФСТЭК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Описание серверов и ПО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обновление схемы серверов, таблицы по установленному ПО и используемым портам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обновление системного ПО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">На будущее</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD для storage, pg in-memory table для ДС, решение для нагр. тестов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обновление прикладного ПО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Замена ОТРС, Open project, Jira, Confluence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Работа с сотрудниками</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Передача дел</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Продлить активность доменной учетки Бояркина Е.В.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Закупка расходников</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подготовить список расходников + железа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.citilink.ru/product/monoblok-teclast-f27-air-27-intel-core-i7-12700-16gb-512gb-ssd-intel-u-1976734/
+    <t>Запросы ФСТЭК</t>
+  </si>
+  <si>
+    <t>Описание серверов и ПО</t>
+  </si>
+  <si>
+    <t>Обновление схемы серверов, таблицы по установленному ПО и используемым портам</t>
+  </si>
+  <si>
+    <t>Обновление системного ПО</t>
+  </si>
+  <si>
+    <t>На будущее</t>
+  </si>
+  <si>
+    <t>SSD для storage, pg in-memory table для ДС, решение для нагр. тестов</t>
+  </si>
+  <si>
+    <t>Обновление прикладного ПО</t>
+  </si>
+  <si>
+    <t>Замена ОТРС, Open project, Jira, Confluence</t>
+  </si>
+  <si>
+    <t>Работа с сотрудниками</t>
+  </si>
+  <si>
+    <t>Передача дел</t>
+  </si>
+  <si>
+    <t>Продлить активность доменной учетки Бояркина Е.В.</t>
+  </si>
+  <si>
+    <t>Закупка расходников</t>
+  </si>
+  <si>
+    <t>Подготовить список расходников + железа</t>
+  </si>
+  <si>
+    <t>https://www.citilink.ru/product/monoblok-teclast-f27-air-27-intel-core-i7-12700-16gb-512gb-ssd-intel-u-1976734/
 https://www.cifrus.ru/description/23/asus_vivobook_17x_k3704va-au051_intel_core_i5_13500h_2600_mhz_17_3_1920x1080_16gb_512gb_ssd_intel_iris_xe_graphics_dos_black_90nb1091-m00210_eac/</t>
   </si>
   <si>
     <t>Мотивация</t>
   </si>
   <si>
-    <t xml:space="preserve">Подготовить мясо для СЗ на повышение ЗП по Васильеву и Филимонову</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Премия на юбилей Семенову С.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подтвердить повышение ЗП по Васильеву и Филимонову</t>
+    <t>Подготовить мясо для СЗ на повышение ЗП по Васильеву и Филимонову</t>
+  </si>
+  <si>
+    <t>Премия на юбилей Семенову С.А.</t>
+  </si>
+  <si>
+    <t>Подтвердить повышение ЗП по Васильеву и Филимонову</t>
   </si>
   <si>
     <t>Обучение</t>
   </si>
   <si>
-    <t xml:space="preserve">Подготовить план обучения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Планировщик запросов, оптимизация запросов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.postgresqltutorial.com/postgresql-tutorial/postgresql-explain/
+    <t>Подготовить план обучения</t>
+  </si>
+  <si>
+    <t>Планировщик запросов, оптимизация запросов</t>
+  </si>
+  <si>
+    <t>https://www.postgresqltutorial.com/postgresql-tutorial/postgresql-explain/
 https://habr.com/ru/companies/okko/articles/443276/
 + потренироваться в pgAdmin</t>
   </si>
   <si>
-    <t xml:space="preserve">Проектирование БД, повторение темы СУБД и SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Методы моделирования, нотации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проектная документация, закупки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОТРС и защита информации</t>
+    <t>Проектирование БД, повторение темы СУБД и SQL</t>
+  </si>
+  <si>
+    <t>Методы моделирования, нотации</t>
+  </si>
+  <si>
+    <t>Проектная документация, закупки</t>
+  </si>
+  <si>
+    <t>ОТРС и защита информации</t>
   </si>
   <si>
     <t>1С-ЭДО</t>
   </si>
   <si>
-    <t xml:space="preserve">Яндекс Метрика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дальнейшие планы на обучение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Поколение Python": курс для начинающих</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разделы 1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разобраться в БД Анкетолога</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доработать схемы</t>
+    <t>Яндекс Метрика</t>
+  </si>
+  <si>
+    <t>Дальнейшие планы на обучение</t>
+  </si>
+  <si>
+    <t>"Поколение Python": курс для начинающих</t>
+  </si>
+  <si>
+    <t>Разделы 1-3</t>
+  </si>
+  <si>
+    <t>Разобраться в БД Анкетолога</t>
+  </si>
+  <si>
+    <t>Доработать схемы</t>
   </si>
   <si>
     <t>Отпуска</t>
   </si>
   <si>
-    <t xml:space="preserve">График отпусков 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Другие проекты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Домен "Культура"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Материалы для защиты проекта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Домен "Культура", ЕАС МК РФ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выбор BI, ESB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сайт ГИВЦ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рассмотреть дизайн сайта, проверить информацию об АИС "Статистика"</t>
+    <t>График отпусков 2025</t>
+  </si>
+  <si>
+    <t>Другие проекты</t>
+  </si>
+  <si>
+    <t>Домен "Культура"</t>
+  </si>
+  <si>
+    <t>Материалы для защиты проекта</t>
+  </si>
+  <si>
+    <t>Домен "Культура", ЕАС МК РФ</t>
+  </si>
+  <si>
+    <t>Выбор BI, ESB</t>
+  </si>
+  <si>
+    <t>Сайт ГИВЦ</t>
+  </si>
+  <si>
+    <t>Рассмотреть дизайн сайта, проверить информацию об АИС "Статистика"</t>
   </si>
   <si>
     <t>https://test.givc.ru/new-site/index2.php</t>
   </si>
   <si>
-    <t xml:space="preserve">Шина данных (интеграция с АИС "Статистика")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подготовить первичные материалы по шине данных для Старкова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ первичный вариант
+    <t>Шина данных (интеграция с АИС "Статистика")</t>
+  </si>
+  <si>
+    <t>Подготовить первичные материалы по шине данных для Старкова</t>
+  </si>
+  <si>
+    <t>+ первичный вариант
 - исправленный вариант
 - наборы данных в Статистике</t>
   </si>
   <si>
-    <t xml:space="preserve">в DWH давать ночные своды за все года?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">своды для ЦБС?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">отдельная сверка ST3 и DWH по контентам?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ускорение обработки доков (сейчас 60-70 в минуту)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В формах ввода в разделе "Общие данные" не очень понятно, что графу "Значение" можно править, пока не ткнешь в поле, т.к. она выглядит точно так же как графа "Описание". Можно как-то их сделать различными, рамки в графе "Значение" добавить или еще как-то?
+    <t>в DWH давать ночные своды за все года?</t>
+  </si>
+  <si>
+    <t>своды для ЦБС?</t>
+  </si>
+  <si>
+    <t>отдельная сверка ST3 и DWH по контентам?</t>
+  </si>
+  <si>
+    <t>ускорение обработки доков (сейчас 60-70 в минуту)</t>
+  </si>
+  <si>
+    <t>В формах ввода в разделе "Общие данные" не очень понятно, что графу "Значение" можно править, пока не ткнешь в поле, т.к. она выглядит точно так же как графа "Описание". Можно как-то их сделать различными, рамки в графе "Значение" добавить или еще как-то?
 + по-другому выделять заблокированные ячейки со значениями</t>
   </si>
   <si>
-    <t xml:space="preserve">панель мониторинга Grafana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">чистка customobjectprops, customobjects в ST4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">к вопросу ускорения ST3:
+    <t>панель мониторинга Grafana</t>
+  </si>
+  <si>
+    <t>чистка customobjectprops, customobjects в ST4</t>
+  </si>
+  <si>
+    <t>к вопросу ускорения ST3:
  - SSD для storage, S3 хранилище (как в Госкаталоге)
  - postgres in-memory table для выборки документов в Данных статистики
  - лучшее решение для запуска нагрузочных тестов
  - +1 реплика к БД</t>
   </si>
   <si>
-    <t xml:space="preserve">к вопросу ускорения DWH: более быстрые SSD, оптимизация параметров БД, деление БД по годам (условно данные ранее 2-х последних лет скидывать в отдельную БД)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">показать ОТРС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">настроить Яндекс.Метрика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">для доков X убрать кнопку "Ввод данных"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">отчетность на ClickHouse, Apache Spark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">особые права пользователей (доп. запросы docs при авторизации пользователей) перевести на бэки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">видимость справочника организаций на чтение для mk и cамих организаций</t>
-  </si>
-  <si>
-    <t xml:space="preserve">в справочнике организаций нельзя делать неактуальными головные организации (для актуальных респондентов)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дубли в formdate по форме 439, баг экспорта-импорта формы?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">в генераторе документов если ввести код копука и потом его выделить, то все закрывается</t>
-  </si>
-  <si>
-    <t xml:space="preserve">в Данных статистики , если по доку кликнуть правой кнопкой и открыть на редактирование, то открывается будто снимется ВДЗ, хотя ВДЗ = НЕТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">по сортировке справочников, гдето работает гдето нет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ограничения на уровень управления в зависимости от головной организации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">после перехода на новый обработчик включаем сброс кэша справочников;
+    <t>к вопросу ускорения DWH: более быстрые SSD, оптимизация параметров БД, деление БД по годам (условно данные ранее 2-х последних лет скидывать в отдельную БД)</t>
+  </si>
+  <si>
+    <t>показать ОТРС</t>
+  </si>
+  <si>
+    <t>настроить Яндекс.Метрика</t>
+  </si>
+  <si>
+    <t>для доков X убрать кнопку "Ввод данных"</t>
+  </si>
+  <si>
+    <t>отчетность на ClickHouse, Apache Spark</t>
+  </si>
+  <si>
+    <t>особые права пользователей (доп. запросы docs при авторизации пользователей) перевести на бэки</t>
+  </si>
+  <si>
+    <t>видимость справочника организаций на чтение для mk и cамих организаций</t>
+  </si>
+  <si>
+    <t>в справочнике организаций нельзя делать неактуальными головные организации (для актуальных респондентов)</t>
+  </si>
+  <si>
+    <t>дубли в formdate по форме 439, баг экспорта-импорта формы?</t>
+  </si>
+  <si>
+    <t>в генераторе документов если ввести код копука и потом его выделить, то все закрывается</t>
+  </si>
+  <si>
+    <t>в Данных статистики , если по доку кликнуть правой кнопкой и открыть на редактирование, то открывается будто снимется ВДЗ, хотя ВДЗ = НЕТ</t>
+  </si>
+  <si>
+    <t>по сортировке справочников, гдето работает гдето нет</t>
+  </si>
+  <si>
+    <t>ограничения на уровень управления в зависимости от головной организации</t>
+  </si>
+  <si>
+    <t>после перехода на новый обработчик включаем сброс кэша справочников;
 планируем переход на середину апреля, когда будет новый останов Статистики</t>
   </si>
   <si>
-    <t xml:space="preserve">нет отдельного права для кнопки "Подписать"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">проверить обработку копуков, сверка очень много расхождений находит (вот это событие не отработало onAfterUnsetSourceEOL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЕ ПОДГЛЯДЫВАЙ!!! :)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">по АПИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">есть ли в доках endpoint (statpreprod...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">по новому логгеру на 209.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">договорились что дадут 300Гб на жестком с учетом клонирования боевой ДВХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дослать Алиевой (БАРС) изменения по ФЛК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ расширение мощностей 209.93 (Сергей, заявка отправлена) //ГОТОВО
+    <t>нет отдельного права для кнопки "Подписать"</t>
+  </si>
+  <si>
+    <t>проверить обработку копуков, сверка очень много расхождений находит (вот это событие не отработало onAfterUnsetSourceEOL)</t>
+  </si>
+  <si>
+    <t>НЕ ПОДГЛЯДЫВАЙ!!! :)</t>
+  </si>
+  <si>
+    <t>по АПИ</t>
+  </si>
+  <si>
+    <t>есть ли в доках endpoint (statpreprod...)</t>
+  </si>
+  <si>
+    <t>по новому логгеру на 209.93</t>
+  </si>
+  <si>
+    <t>договорились что дадут 300Гб на жестком с учетом клонирования боевой ДВХ</t>
+  </si>
+  <si>
+    <t>дослать Алиевой (БАРС) изменения по ФЛК</t>
+  </si>
+  <si>
+    <t>+ расширение мощностей 209.93 (Сергей, заявка отправлена) //ГОТОВО
 - настройка докеров и ПО на них на 209.93 (Юрий) //ГОТОВО
 - настройка CI/CD (Юрий)
 - настройка конфига нового обработчика на 209.93 (Петр - не успевает, поэтому попозже)
@@ -1418,59 +1424,112 @@
 в день старта:  перенос и чистка БД DWH на 209.93 (Петр), события с бэков боя слать на старый и новый логер (Юрий)</t>
   </si>
   <si>
-    <t xml:space="preserve">ЗАГЛЯНИ НА ЛИСТ "ВАСИЛЬЕВ" ;-)</t>
+    <t>ЗАГЛЯНИ НА ЛИСТ "ВАСИЛЬЕВ" ;-)</t>
+  </si>
+  <si>
+    <t>Новый и старый обработчики</t>
+  </si>
+  <si>
+    <t>Перенос полей в ДВХ, которые не переносились</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Петру надо внести изменения на:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Петров Юрий А. (03.04.2025 16:29):
+Петя, я тут расстарался: для старого обработчика на java-8 исправил:
+Stat3-Entities 2.52-SNAPSHOT и 2.52-RELEASE (ветка dev и preprod)
+TransferUtil 1.58-SNAPSHOT и 1.58-RELEASE (ветка dev и master)
+Включил туда новые поля regdt, qrcode и т.д., а также transferSource.java теперь переносит эти поля в двх.
+Для java-11 ничего не трогал.
+для нового обработчика на java-11 исправил transferUtil
+2.10-SNAPSHOT (ветка j11new)
+все артефакты теперь деплоятся на новый репозиторий 50.35</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="160" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="10"/>
-      <sz val="11.000000"/>
-      <u/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="10"/>
-      <sz val="11.000000"/>
-      <u/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <strike/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="16"/>
       <color theme="1"/>
-      <sz val="16.000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1489,8 +1548,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="0"/>
-        <bgColor theme="0" tint="0"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -1499,7 +1558,12 @@
         <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
-    <fill/>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="5"/>
@@ -1520,8 +1584,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.049989318521683403"/>
-        <bgColor theme="0" tint="-0.049989318521683403"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
       </patternFill>
     </fill>
     <fill>
@@ -1753,377 +1817,378 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="129">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="1" numFmtId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="2" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="2" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="4" borderId="4" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="2" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="2" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="8" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="2" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="10" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="6" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="5" numFmtId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="7" numFmtId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="7" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="7" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="7" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="4" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="8" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="7" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="8" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="2" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="5" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="12" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="14" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="12" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="15" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="11" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="16" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="12" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="5" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="15" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="12" numFmtId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="2" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="3" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="5" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="9" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="9" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="7" numFmtId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="7" numFmtId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2135,6 +2200,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2147,8 +2215,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Таблица1" ref="$A$1:$H$155">
-  <autoFilter ref="$A$1:$H$155"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:H156">
+  <autoFilter ref="A1:H156"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Блок задач"/>
     <tableColumn id="2" name="Блок задач 2"/>
@@ -2163,291 +2231,8 @@
 </table>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -2650,6 +2435,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -2672,27 +2458,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView topLeftCell="A1" workbookViewId="0" zoomScale="115">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="1" width="22.28515625"/>
-    <col customWidth="1" min="2" max="2" style="1" width="31.8515625"/>
-    <col customWidth="1" min="3" max="3" style="2" width="56.5703125"/>
-    <col customWidth="1" min="4" max="4" style="2" width="61.00390625"/>
-    <col customWidth="1" min="5" max="5" style="3" width="10.421875"/>
-    <col customWidth="1" min="6" max="6" style="1" width="13.5703125"/>
-    <col customWidth="1" min="7" max="7" style="1" width="32.28515625"/>
-    <col customWidth="1" min="8" max="8" style="1" width="11.28125"/>
-    <col min="9" max="16384" style="1" width="9.140625"/>
+    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2718,7 +2505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="28.5">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -2744,9 +2531,8 @@
         <f t="shared" ref="H2:H9" si="0">IF(MID(G2,1,4)="Васи",IF(F2="готово","ВГ","В"),IF(IFERROR(FIND("Васи",G2),0)&gt;0,IF(F2="готово","В2Г","В2"),"-"))</f>
         <v>-</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" ht="28.5">
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
@@ -2772,9 +2558,8 @@
         <f t="shared" si="0"/>
         <v>ВГ</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" ht="28.5">
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -2801,7 +2586,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="5" ht="42.75">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -2828,7 +2613,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="6" ht="42.75">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -2853,7 +2638,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="7" ht="42.75">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
@@ -2880,7 +2665,7 @@
         <v>ВГ</v>
       </c>
     </row>
-    <row r="8" ht="28.5">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -2907,7 +2692,7 @@
         <v>ВГ</v>
       </c>
     </row>
-    <row r="9" ht="42.75">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
@@ -2934,7 +2719,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="10" ht="42.75">
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
@@ -2961,7 +2746,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="11" ht="42.75">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -2988,7 +2773,7 @@
         <v>ВГ</v>
       </c>
     </row>
-    <row r="12" ht="42.75">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
@@ -3014,9 +2799,8 @@
         <f t="shared" si="1"/>
         <v>ВГ</v>
       </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" ht="42.75">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
@@ -3043,7 +2827,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="14" ht="42.75">
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>8</v>
       </c>
@@ -3069,9 +2853,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" ht="42.75">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>8</v>
       </c>
@@ -3095,9 +2878,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" ht="42.75">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>8</v>
       </c>
@@ -3122,7 +2904,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="17" ht="42.75">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>8</v>
       </c>
@@ -3145,7 +2927,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="18" ht="42.75">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
@@ -3172,7 +2954,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="19" ht="42.75">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>8</v>
       </c>
@@ -3197,7 +2979,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="20" ht="242.25">
+    <row r="20" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
@@ -3224,7 +3006,7 @@
         <v>В</v>
       </c>
     </row>
-    <row r="21" ht="42.75">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>8</v>
       </c>
@@ -3249,7 +3031,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="22" ht="42.75">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>8</v>
       </c>
@@ -3274,7 +3056,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="23" ht="42.75">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>8</v>
       </c>
@@ -3296,9 +3078,8 @@
       <c r="G23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" ht="57">
+    </row>
+    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
@@ -3320,9 +3101,8 @@
       <c r="G24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" ht="42.75">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>8</v>
       </c>
@@ -3347,7 +3127,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="26" ht="28.5">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>8</v>
       </c>
@@ -3374,7 +3154,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="27" ht="42.75" collapsed="1">
+    <row r="27" spans="1:8" ht="45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>8</v>
       </c>
@@ -3401,7 +3181,7 @@
         <v>В2Г</v>
       </c>
     </row>
-    <row r="28" ht="28.5">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>8</v>
       </c>
@@ -3426,7 +3206,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="29" ht="42.75">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>8</v>
       </c>
@@ -3453,7 +3233,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="30" ht="42.75">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>8</v>
       </c>
@@ -3480,7 +3260,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="31" ht="42.75">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>8</v>
       </c>
@@ -3506,9 +3286,8 @@
         <f t="shared" si="1"/>
         <v>ВГ</v>
       </c>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" ht="42.75">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>8</v>
       </c>
@@ -3535,7 +3314,7 @@
         <v>ВГ</v>
       </c>
     </row>
-    <row r="33" ht="42.75">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>8</v>
       </c>
@@ -3558,7 +3337,7 @@
         <v>В2</v>
       </c>
     </row>
-    <row r="34" ht="28.5">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>8</v>
       </c>
@@ -3585,7 +3364,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="35" ht="42.75">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>8</v>
       </c>
@@ -3612,7 +3391,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="36" ht="57">
+    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>8</v>
       </c>
@@ -3639,7 +3418,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="37" ht="57">
+    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>8</v>
       </c>
@@ -3666,7 +3445,7 @@
         <v>В</v>
       </c>
     </row>
-    <row r="38" ht="71.25">
+    <row r="38" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>8</v>
       </c>
@@ -3693,7 +3472,7 @@
         <v>ВГ</v>
       </c>
     </row>
-    <row r="39" ht="28.5">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>8</v>
       </c>
@@ -3719,9 +3498,8 @@
         <f t="shared" si="1"/>
         <v>ВГ</v>
       </c>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" ht="28.5">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>8</v>
       </c>
@@ -3747,9 +3525,8 @@
         <f t="shared" si="1"/>
         <v>ВГ</v>
       </c>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" ht="28.5">
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>8</v>
       </c>
@@ -3776,7 +3553,7 @@
         <v>ВГ</v>
       </c>
     </row>
-    <row r="42" ht="57">
+    <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>8</v>
       </c>
@@ -3803,7 +3580,7 @@
         <v>В</v>
       </c>
     </row>
-    <row r="43" ht="42.75">
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>8</v>
       </c>
@@ -3829,9 +3606,8 @@
         <f t="shared" si="1"/>
         <v>ВГ</v>
       </c>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" ht="42.75">
+    </row>
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>8</v>
       </c>
@@ -3855,9 +3631,8 @@
         <f t="shared" si="1"/>
         <v>В</v>
       </c>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" ht="28.5">
+    </row>
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>8</v>
       </c>
@@ -3884,7 +3659,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="46" ht="28.5">
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>8</v>
       </c>
@@ -3907,7 +3682,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="47" ht="58.5" customHeight="1">
+    <row r="47" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>8</v>
       </c>
@@ -3934,7 +3709,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="48" ht="41.25" customHeight="1">
+    <row r="48" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
         <v>8</v>
       </c>
@@ -3961,7 +3736,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="49" ht="70.5" customHeight="1">
+    <row r="49" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>8</v>
       </c>
@@ -3988,7 +3763,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="50" ht="71.25">
+    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>8</v>
       </c>
@@ -4015,7 +3790,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="51" ht="42.75">
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>8</v>
       </c>
@@ -4042,7 +3817,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="52" ht="28.5">
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>8</v>
       </c>
@@ -4069,7 +3844,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="53" ht="71.25">
+    <row r="53" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>8</v>
       </c>
@@ -4096,7 +3871,7 @@
         <v>ВГ</v>
       </c>
     </row>
-    <row r="54" ht="42.75">
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>8</v>
       </c>
@@ -4123,7 +3898,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="55" ht="28.5">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>8</v>
       </c>
@@ -4150,7 +3925,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="56" ht="28.5">
+    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>122</v>
       </c>
@@ -4175,7 +3950,7 @@
         <v>В2</v>
       </c>
     </row>
-    <row r="57" ht="57">
+    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
         <v>127</v>
       </c>
@@ -4202,7 +3977,7 @@
         <v>ВГ</v>
       </c>
     </row>
-    <row r="58" ht="57">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
         <v>127</v>
       </c>
@@ -4227,7 +4002,7 @@
         <v>В2</v>
       </c>
     </row>
-    <row r="59" s="46" customFormat="1" ht="28.5">
+    <row r="59" spans="1:8" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
         <v>127</v>
       </c>
@@ -4254,7 +4029,7 @@
         <v>В2Г</v>
       </c>
     </row>
-    <row r="60" s="46" customFormat="1" ht="28.5">
+    <row r="60" spans="1:8" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
         <v>127</v>
       </c>
@@ -4281,7 +4056,7 @@
         <v>В2</v>
       </c>
     </row>
-    <row r="61" s="46" customFormat="1" ht="28.5">
+    <row r="61" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
         <v>127</v>
       </c>
@@ -4308,7 +4083,7 @@
         <v>В2Г</v>
       </c>
     </row>
-    <row r="62" s="46" customFormat="1" ht="28.5">
+    <row r="62" spans="1:8" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
         <v>127</v>
       </c>
@@ -4334,9 +4109,8 @@
         <f t="shared" si="1"/>
         <v>ВГ</v>
       </c>
-      <c r="I62" s="46"/>
-    </row>
-    <row r="63" s="46" customFormat="1">
+    </row>
+    <row r="63" spans="1:8" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="41" t="s">
         <v>127</v>
       </c>
@@ -4363,7 +4137,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="64" s="46" customFormat="1" ht="42.75" collapsed="1">
+    <row r="64" spans="1:8" s="46" customFormat="1" ht="45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
         <v>127</v>
       </c>
@@ -4390,7 +4164,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="65" s="46" customFormat="1" ht="28.5" collapsed="1">
+    <row r="65" spans="1:8" s="46" customFormat="1" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
         <v>127</v>
       </c>
@@ -4417,7 +4191,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="66" s="46" customFormat="1">
+    <row r="66" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
         <v>127</v>
       </c>
@@ -4440,7 +4214,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="67" s="46" customFormat="1" ht="28.5">
+    <row r="67" spans="1:8" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="41" t="s">
         <v>127</v>
       </c>
@@ -4467,7 +4241,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="68" s="46" customFormat="1">
+    <row r="68" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="41" t="s">
         <v>127</v>
       </c>
@@ -4490,7 +4264,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="69" s="46" customFormat="1" ht="85.5">
+    <row r="69" spans="1:8" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="49" t="s">
         <v>127</v>
       </c>
@@ -4517,7 +4291,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="70" ht="42.75">
+    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="53" t="s">
         <v>127</v>
       </c>
@@ -4540,7 +4314,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="71" s="46" customFormat="1" ht="14.25">
+    <row r="71" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="53" t="s">
         <v>127</v>
       </c>
@@ -4561,7 +4335,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="72" ht="28.5">
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="58" t="s">
         <v>168</v>
       </c>
@@ -4588,7 +4362,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="73" ht="28.5">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="58" t="s">
         <v>168</v>
       </c>
@@ -4615,7 +4389,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="74" ht="28.5">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="58" t="s">
         <v>168</v>
       </c>
@@ -4638,11 +4412,11 @@
         <v>13</v>
       </c>
       <c r="H74" s="1" t="str">
-        <f t="shared" ref="H74:H109" si="2">IF(MID(G74,1,4)="Васи",IF(F74="готово","ВГ","В"),IF(IFERROR(FIND("Васи",G74),0)&gt;0,IF(F74="готово","В2Г","В2"),"-"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="75" ht="28.5">
+        <f t="shared" ref="H74:H110" si="2">IF(MID(G74,1,4)="Васи",IF(F74="готово","ВГ","В"),IF(IFERROR(FIND("Васи",G74),0)&gt;0,IF(F74="готово","В2Г","В2"),"-"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="58" t="s">
         <v>168</v>
       </c>
@@ -4669,7 +4443,7 @@
         <v>ВГ</v>
       </c>
     </row>
-    <row r="76" ht="42.75">
+    <row r="76" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="58" t="s">
         <v>168</v>
       </c>
@@ -4696,7 +4470,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="77" ht="30" collapsed="1">
+    <row r="77" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A77" s="58" t="s">
         <v>168</v>
       </c>
@@ -4723,7 +4497,7 @@
         <v>ВГ</v>
       </c>
     </row>
-    <row r="78" ht="156.75">
+    <row r="78" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A78" s="58" t="s">
         <v>168</v>
       </c>
@@ -4750,7 +4524,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="79" ht="156.75">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="58" t="s">
         <v>168</v>
       </c>
@@ -4777,7 +4551,7 @@
         <v>ВГ</v>
       </c>
     </row>
-    <row r="80" ht="156.75">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="58" t="s">
         <v>168</v>
       </c>
@@ -4804,7 +4578,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="81" ht="171">
+    <row r="81" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A81" s="58" t="s">
         <v>168</v>
       </c>
@@ -4831,7 +4605,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="82" ht="171">
+    <row r="82" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="58" t="s">
         <v>168</v>
       </c>
@@ -4858,7 +4632,7 @@
         <v>В</v>
       </c>
     </row>
-    <row r="83" ht="57">
+    <row r="83" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="58" t="s">
         <v>168</v>
       </c>
@@ -4881,7 +4655,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="84" ht="142.5">
+    <row r="84" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A84" s="76" t="s">
         <v>168</v>
       </c>
@@ -4906,7 +4680,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="85" ht="42.75">
+    <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>168</v>
       </c>
@@ -4929,7 +4703,7 @@
         <v>В2</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>168</v>
       </c>
@@ -4954,7 +4728,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="87" ht="28.5" collapsed="1">
+    <row r="87" spans="1:8" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>168</v>
       </c>
@@ -4981,7 +4755,7 @@
         <v>ВГ</v>
       </c>
     </row>
-    <row r="88" ht="71.25">
+    <row r="88" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>168</v>
       </c>
@@ -5008,34 +4782,34 @@
         <v>В</v>
       </c>
     </row>
-    <row r="89" ht="71.25">
+    <row r="89" spans="1:8" ht="174" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>168</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>207</v>
+        <v>384</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E89" s="13">
-        <v>45698</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>12</v>
+        <v>385</v>
+      </c>
+      <c r="D89" s="128" t="s">
+        <v>386</v>
+      </c>
+      <c r="E89" s="29">
+        <v>45761</v>
+      </c>
+      <c r="F89" s="83" t="s">
+        <v>39</v>
       </c>
       <c r="G89" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H89" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ВГ</v>
-      </c>
-    </row>
-    <row r="90" ht="42.75">
+        <v>В</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>168</v>
       </c>
@@ -5043,13 +4817,13 @@
         <v>207</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="E90" s="84">
-        <v>45701</v>
+        <v>209</v>
+      </c>
+      <c r="E90" s="13">
+        <v>45698</v>
       </c>
       <c r="F90" s="14" t="s">
         <v>12</v>
@@ -5062,23 +4836,23 @@
         <v>ВГ</v>
       </c>
     </row>
-    <row r="91" ht="28.5">
+    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>168</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D91" s="85" t="s">
-        <v>214</v>
-      </c>
-      <c r="E91" s="71">
-        <v>45716</v>
-      </c>
-      <c r="F91" s="86" t="s">
+        <v>210</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E91" s="84">
+        <v>45701</v>
+      </c>
+      <c r="F91" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G91" s="15" t="s">
@@ -5089,32 +4863,34 @@
         <v>ВГ</v>
       </c>
     </row>
-    <row r="92" ht="28.5">
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>168</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="D92" s="87"/>
-      <c r="E92" s="61">
-        <v>45754</v>
-      </c>
-      <c r="F92" s="88" t="s">
-        <v>39</v>
+        <v>213</v>
+      </c>
+      <c r="D92" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="E92" s="71">
+        <v>45716</v>
+      </c>
+      <c r="F92" s="86" t="s">
+        <v>12</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H92" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="93" ht="57">
+        <v>ВГ</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>168</v>
       </c>
@@ -5122,53 +4898,51 @@
         <v>215</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D93" s="89" t="s">
-        <v>218</v>
-      </c>
-      <c r="E93" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="F93" s="90" t="s">
-        <v>220</v>
+        <v>216</v>
+      </c>
+      <c r="D93" s="87"/>
+      <c r="E93" s="61">
+        <v>45754</v>
+      </c>
+      <c r="F93" s="88" t="s">
+        <v>39</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H93" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>В</v>
-      </c>
-    </row>
-    <row r="94" ht="57">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>168</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D94" s="89" t="s">
-        <v>222</v>
-      </c>
-      <c r="E94" s="91">
-        <v>45699</v>
-      </c>
-      <c r="F94" s="92" t="s">
-        <v>12</v>
+        <v>218</v>
+      </c>
+      <c r="E94" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="F94" s="90" t="s">
+        <v>220</v>
       </c>
       <c r="G94" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H94" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ВГ</v>
-      </c>
-    </row>
-    <row r="95" ht="57">
+        <v>В</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>168</v>
       </c>
@@ -5176,26 +4950,26 @@
         <v>179</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D95" s="89" t="s">
-        <v>224</v>
-      </c>
-      <c r="E95" s="84">
-        <v>45751</v>
-      </c>
-      <c r="F95" s="88" t="s">
-        <v>39</v>
+        <v>222</v>
+      </c>
+      <c r="E95" s="91">
+        <v>45699</v>
+      </c>
+      <c r="F95" s="92" t="s">
+        <v>12</v>
       </c>
       <c r="G95" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H95" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>В</v>
-      </c>
-    </row>
-    <row r="96" ht="57">
+        <v>ВГ</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>168</v>
       </c>
@@ -5203,13 +4977,13 @@
         <v>179</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D96" s="89" t="s">
-        <v>226</v>
-      </c>
-      <c r="E96" s="93">
-        <v>45772</v>
+        <v>224</v>
+      </c>
+      <c r="E96" s="84">
+        <v>45751</v>
       </c>
       <c r="F96" s="88" t="s">
         <v>39</v>
@@ -5222,42 +4996,48 @@
         <v>В</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>168</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D97" s="94" t="s">
-        <v>229</v>
-      </c>
-      <c r="E97" s="67"/>
-      <c r="F97" s="95"/>
+        <v>225</v>
+      </c>
+      <c r="D97" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="E97" s="93">
+        <v>45772</v>
+      </c>
+      <c r="F97" s="88" t="s">
+        <v>39</v>
+      </c>
       <c r="G97" s="15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H97" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>В</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>168</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="D98" s="11"/>
-      <c r="E98" s="40"/>
-      <c r="F98" s="82"/>
+        <v>228</v>
+      </c>
+      <c r="D98" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="E98" s="67"/>
+      <c r="F98" s="95"/>
       <c r="G98" s="15" t="s">
         <v>13</v>
       </c>
@@ -5266,18 +5046,18 @@
         <v>-</v>
       </c>
     </row>
-    <row r="99" ht="28.5">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>168</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D99" s="11"/>
-      <c r="E99" s="96"/>
+      <c r="E99" s="40"/>
       <c r="F99" s="82"/>
       <c r="G99" s="15" t="s">
         <v>13</v>
@@ -5287,32 +5067,28 @@
         <v>-</v>
       </c>
     </row>
-    <row r="100" ht="28.5">
-      <c r="A100" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="B100" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="C100" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="D100" s="42"/>
-      <c r="E100" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="F100" s="97" t="s">
-        <v>39</v>
-      </c>
-      <c r="G100" s="45" t="s">
-        <v>133</v>
+    <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D100" s="11"/>
+      <c r="E100" s="96"/>
+      <c r="F100" s="82"/>
+      <c r="G100" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="H100" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>В2</v>
-      </c>
-    </row>
-    <row r="101" ht="28.5" collapsed="1">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="42" t="s">
         <v>233</v>
       </c>
@@ -5320,26 +5096,24 @@
         <v>234</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="D101" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="E101" s="98">
-        <v>45674</v>
-      </c>
-      <c r="F101" s="99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="100" t="s">
-        <v>13</v>
+        <v>235</v>
+      </c>
+      <c r="D101" s="42"/>
+      <c r="E101" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F101" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="G101" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="H101" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="102" ht="28.5" collapsed="1">
+        <v>В2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A102" s="42" t="s">
         <v>233</v>
       </c>
@@ -5347,53 +5121,53 @@
         <v>234</v>
       </c>
       <c r="C102" s="42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D102" s="42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E102" s="98">
-        <v>45747</v>
-      </c>
-      <c r="F102" s="101" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" s="45" t="s">
-        <v>25</v>
+        <v>45674</v>
+      </c>
+      <c r="F102" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="100" t="s">
+        <v>13</v>
       </c>
       <c r="H102" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ВГ</v>
-      </c>
-    </row>
-    <row r="103" ht="28.5">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A103" s="42" t="s">
         <v>233</v>
       </c>
       <c r="B103" s="41" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D103" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="E103" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="F103" s="102" t="s">
-        <v>39</v>
+        <v>239</v>
+      </c>
+      <c r="E103" s="98">
+        <v>45747</v>
+      </c>
+      <c r="F103" s="101" t="s">
+        <v>12</v>
       </c>
       <c r="G103" s="45" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="H103" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>В2</v>
-      </c>
-    </row>
-    <row r="104" s="46" customFormat="1" ht="28.5">
+        <v>ВГ</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="42" t="s">
         <v>233</v>
       </c>
@@ -5401,45 +5175,47 @@
         <v>240</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="D104" s="42"/>
-      <c r="E104" s="103"/>
-      <c r="F104" s="48"/>
+        <v>241</v>
+      </c>
+      <c r="D104" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="E104" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F104" s="102" t="s">
+        <v>39</v>
+      </c>
       <c r="G104" s="45" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="H104" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="105" ht="28.5">
+        <v>В2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="42" t="s">
         <v>233</v>
       </c>
       <c r="B105" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C105" s="42" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D105" s="42"/>
-      <c r="E105" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="F105" s="48" t="s">
-        <v>39</v>
-      </c>
+      <c r="E105" s="103"/>
+      <c r="F105" s="48"/>
       <c r="G105" s="45" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="H105" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>В2</v>
-      </c>
-    </row>
-    <row r="106" s="46" customFormat="1" ht="28.5">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="42" t="s">
         <v>233</v>
       </c>
@@ -5447,90 +5223,90 @@
         <v>244</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="D106" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="E106" s="29">
-        <v>45757</v>
-      </c>
-      <c r="F106" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="D106" s="42"/>
+      <c r="E106" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F106" s="48" t="s">
         <v>39</v>
       </c>
       <c r="G106" s="45" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="H106" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="107" s="46" customFormat="1" ht="57">
+        <v>В2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="42" t="s">
         <v>233</v>
       </c>
       <c r="B107" s="41" t="s">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="C107" s="42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D107" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="E107" s="104">
-        <v>45695</v>
-      </c>
-      <c r="F107" s="105" t="s">
-        <v>12</v>
+        <v>247</v>
+      </c>
+      <c r="E107" s="29">
+        <v>45757</v>
+      </c>
+      <c r="F107" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="G107" s="45" t="s">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="H107" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>В2Г</v>
-      </c>
-    </row>
-    <row r="108" s="46" customFormat="1" ht="28.5">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="42" t="s">
         <v>233</v>
       </c>
       <c r="B108" s="41" t="s">
-        <v>251</v>
+        <v>122</v>
       </c>
       <c r="C108" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="D108" s="42"/>
+        <v>248</v>
+      </c>
+      <c r="D108" s="42" t="s">
+        <v>249</v>
+      </c>
       <c r="E108" s="104">
-        <v>45674</v>
-      </c>
-      <c r="F108" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="100" t="s">
-        <v>13</v>
+        <v>45695</v>
+      </c>
+      <c r="F108" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="45" t="s">
+        <v>250</v>
       </c>
       <c r="H108" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="109" s="46" customFormat="1" ht="28.5">
+        <v>В2Г</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="42" t="s">
         <v>233</v>
       </c>
       <c r="B109" s="41" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C109" s="42" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D109" s="42"/>
       <c r="E109" s="104">
-        <v>45672</v>
+        <v>45674</v>
       </c>
       <c r="F109" s="72" t="s">
         <v>12</v>
@@ -5543,7 +5319,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="110" s="46" customFormat="1" ht="28.5">
+    <row r="110" spans="1:8" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="42" t="s">
         <v>233</v>
       </c>
@@ -5551,11 +5327,11 @@
         <v>253</v>
       </c>
       <c r="C110" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D110" s="42"/>
       <c r="E110" s="104">
-        <v>45680</v>
+        <v>45672</v>
       </c>
       <c r="F110" s="72" t="s">
         <v>12</v>
@@ -5564,55 +5340,53 @@
         <v>13</v>
       </c>
       <c r="H110" s="1" t="str">
-        <f t="shared" ref="H110:H155" si="3">IF(MID(G110,1,4)="Васи",IF(F110="готово","ВГ","В"),IF(IFERROR(FIND("Васи",G110),0)&gt;0,IF(F110="готово","В2Г","В2"),"-"))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="111" s="46" customFormat="1" ht="28.5">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="42" t="s">
         <v>233</v>
       </c>
       <c r="B111" s="41" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C111" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="D111" s="106" t="s">
-        <v>258</v>
-      </c>
-      <c r="E111" s="107">
-        <v>45775</v>
-      </c>
-      <c r="F111" s="102" t="s">
-        <v>39</v>
-      </c>
-      <c r="G111" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="D111" s="42"/>
+      <c r="E111" s="104">
+        <v>45680</v>
+      </c>
+      <c r="F111" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="100" t="s">
         <v>13</v>
       </c>
       <c r="H111" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="112" ht="28.5">
+        <f t="shared" ref="H111:H156" si="3">IF(MID(G111,1,4)="Васи",IF(F111="готово","ВГ","В"),IF(IFERROR(FIND("Васи",G111),0)&gt;0,IF(F111="готово","В2Г","В2"),"-"))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="42" t="s">
         <v>233</v>
       </c>
       <c r="B112" s="41" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C112" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="D112" s="42" t="s">
-        <v>261</v>
+        <v>257</v>
+      </c>
+      <c r="D112" s="106" t="s">
+        <v>258</v>
       </c>
       <c r="E112" s="107">
-        <v>45611</v>
-      </c>
-      <c r="F112" s="108" t="s">
-        <v>12</v>
+        <v>45775</v>
+      </c>
+      <c r="F112" s="102" t="s">
+        <v>39</v>
       </c>
       <c r="G112" s="45" t="s">
         <v>13</v>
@@ -5622,22 +5396,24 @@
         <v>-</v>
       </c>
     </row>
-    <row r="113" s="46" customFormat="1" ht="28.5">
+    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="42" t="s">
         <v>233</v>
       </c>
       <c r="B113" s="41" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C113" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="D113" s="42"/>
+        <v>260</v>
+      </c>
+      <c r="D113" s="42" t="s">
+        <v>261</v>
+      </c>
       <c r="E113" s="107">
-        <v>45775</v>
-      </c>
-      <c r="F113" s="48" t="s">
-        <v>39</v>
+        <v>45611</v>
+      </c>
+      <c r="F113" s="108" t="s">
+        <v>12</v>
       </c>
       <c r="G113" s="45" t="s">
         <v>13</v>
@@ -5647,21 +5423,23 @@
         <v>-</v>
       </c>
     </row>
-    <row r="114" s="46" customFormat="1" ht="28.5">
+    <row r="114" spans="1:8" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="42" t="s">
         <v>233</v>
       </c>
       <c r="B114" s="41" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C114" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="D114" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="E114" s="107"/>
-      <c r="F114" s="48"/>
+        <v>263</v>
+      </c>
+      <c r="D114" s="42"/>
+      <c r="E114" s="107">
+        <v>45775</v>
+      </c>
+      <c r="F114" s="48" t="s">
+        <v>39</v>
+      </c>
       <c r="G114" s="45" t="s">
         <v>13</v>
       </c>
@@ -5670,142 +5448,138 @@
         <v>-</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="D115" s="109" t="s">
-        <v>270</v>
-      </c>
-      <c r="E115" s="16">
-        <v>45637</v>
-      </c>
-      <c r="F115" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="15" t="s">
-        <v>139</v>
+    <row r="115" spans="1:8" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B115" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="C115" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="D115" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="E115" s="107"/>
+      <c r="F115" s="48"/>
+      <c r="G115" s="45" t="s">
+        <v>13</v>
       </c>
       <c r="H115" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>В2Г</v>
-      </c>
-    </row>
-    <row r="116" ht="57" collapsed="1">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>267</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C116" s="110" t="s">
-        <v>272</v>
-      </c>
-      <c r="D116" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="E116" s="13">
-        <v>45643</v>
+        <v>268</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D116" s="109" t="s">
+        <v>270</v>
+      </c>
+      <c r="E116" s="16">
+        <v>45637</v>
       </c>
       <c r="F116" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>274</v>
+        <v>139</v>
       </c>
       <c r="H116" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ВГ</v>
-      </c>
-    </row>
-    <row r="117" ht="57" collapsed="1">
+        <v>В2Г</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="60" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B117" s="111" t="s">
-        <v>275</v>
-      </c>
-      <c r="C117" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="D117" s="112" t="s">
-        <v>277</v>
+      <c r="B117" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C117" s="110" t="s">
+        <v>272</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>273</v>
       </c>
       <c r="E117" s="13">
-        <v>45350</v>
+        <v>45643</v>
       </c>
       <c r="F117" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
       <c r="H117" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="118" ht="42.75">
+        <v>ВГ</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="30" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B118" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C118" s="77" t="s">
-        <v>278</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="E118" s="16">
-        <v>45706</v>
+      <c r="B118" s="111" t="s">
+        <v>275</v>
+      </c>
+      <c r="C118" s="59" t="s">
+        <v>276</v>
+      </c>
+      <c r="D118" s="112" t="s">
+        <v>277</v>
+      </c>
+      <c r="E118" s="13">
+        <v>45350</v>
       </c>
       <c r="F118" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="H118" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>В2Г</v>
-      </c>
-    </row>
-    <row r="119" ht="42.75">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>267</v>
       </c>
       <c r="B119" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C119" s="11" t="s">
-        <v>280</v>
+      <c r="C119" s="77" t="s">
+        <v>278</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E119" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="F119" s="16" t="s">
-        <v>39</v>
+        <v>279</v>
+      </c>
+      <c r="E119" s="16">
+        <v>45706</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="H119" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>В</v>
-      </c>
-    </row>
-    <row r="120" ht="42.75" collapsed="1">
+        <v>В2Г</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>267</v>
       </c>
@@ -5813,26 +5587,26 @@
         <v>271</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E120" s="16">
-        <v>45992</v>
-      </c>
-      <c r="F120" s="108" t="s">
-        <v>12</v>
+        <v>281</v>
+      </c>
+      <c r="E120" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="F120" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="G120" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H120" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ВГ</v>
-      </c>
-    </row>
-    <row r="121" ht="42.75">
+        <v>В</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="45" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>267</v>
       </c>
@@ -5840,70 +5614,70 @@
         <v>271</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E121" s="16">
-        <v>45747</v>
-      </c>
-      <c r="F121" s="16" t="s">
-        <v>39</v>
+        <v>45992</v>
+      </c>
+      <c r="F121" s="108" t="s">
+        <v>12</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="H121" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>В2</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>ВГ</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>267</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E122" s="16">
-        <v>45775</v>
+        <v>45747</v>
       </c>
       <c r="F122" s="16" t="s">
         <v>39</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="H122" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>В2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>267</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="E123" s="13">
-        <v>46003</v>
-      </c>
-      <c r="F123" s="108" t="s">
-        <v>12</v>
+        <v>288</v>
+      </c>
+      <c r="E123" s="16">
+        <v>45775</v>
+      </c>
+      <c r="F123" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="G123" s="15" t="s">
         <v>13</v>
@@ -5913,21 +5687,21 @@
         <v>-</v>
       </c>
     </row>
-    <row r="124" ht="28.5">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>267</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E124" s="13">
-        <v>45645</v>
+        <v>46003</v>
       </c>
       <c r="F124" s="108" t="s">
         <v>12</v>
@@ -5940,21 +5714,21 @@
         <v>-</v>
       </c>
     </row>
-    <row r="125" ht="28.5">
+    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>267</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E125" s="13">
-        <v>45311</v>
+        <v>45645</v>
       </c>
       <c r="F125" s="108" t="s">
         <v>12</v>
@@ -5967,24 +5741,24 @@
         <v>-</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>267</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="E126" s="16">
-        <v>45754</v>
-      </c>
-      <c r="F126" s="82" t="s">
-        <v>39</v>
+        <v>297</v>
+      </c>
+      <c r="E126" s="13">
+        <v>45311</v>
+      </c>
+      <c r="F126" s="108" t="s">
+        <v>12</v>
       </c>
       <c r="G126" s="15" t="s">
         <v>13</v>
@@ -5994,23 +5768,25 @@
         <v>-</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>267</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E127" s="16">
-        <v>45748</v>
-      </c>
-      <c r="F127" s="82"/>
+        <v>45754</v>
+      </c>
+      <c r="F127" s="82" t="s">
+        <v>39</v>
+      </c>
       <c r="G127" s="15" t="s">
         <v>13</v>
       </c>
@@ -6019,62 +5795,66 @@
         <v>-</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>267</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E128" s="16">
-        <v>45754</v>
-      </c>
-      <c r="F128" s="82" t="s">
-        <v>39</v>
-      </c>
+        <v>45748</v>
+      </c>
+      <c r="F128" s="82"/>
       <c r="G128" s="15" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="H128" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>В2</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>267</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="16"/>
-      <c r="F129" s="82"/>
+        <v>289</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="E129" s="16">
+        <v>45754</v>
+      </c>
+      <c r="F129" s="82" t="s">
+        <v>39</v>
+      </c>
       <c r="G129" s="15" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="H129" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="130" ht="28.5">
+        <v>В2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>267</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>308</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C130" s="11"/>
       <c r="D130" s="11"/>
       <c r="E130" s="16"/>
       <c r="F130" s="82"/>
@@ -6086,14 +5866,16 @@
         <v>-</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>267</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C131" s="11"/>
+        <v>307</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>308</v>
+      </c>
       <c r="D131" s="11"/>
       <c r="E131" s="16"/>
       <c r="F131" s="82"/>
@@ -6105,16 +5887,14 @@
         <v>-</v>
       </c>
     </row>
-    <row r="132" ht="28.5">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>267</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>311</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C132" s="11"/>
       <c r="D132" s="11"/>
       <c r="E132" s="16"/>
       <c r="F132" s="82"/>
@@ -6126,17 +5906,17 @@
         <v>-</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>267</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="D133" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="D133" s="11"/>
       <c r="E133" s="16"/>
       <c r="F133" s="82"/>
       <c r="G133" s="15" t="s">
@@ -6147,24 +5927,19 @@
         <v>-</v>
       </c>
     </row>
-    <row r="134" s="46" customFormat="1">
-      <c r="A134" s="41" t="s">
-        <v>314</v>
-      </c>
-      <c r="B134" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="C134" s="42" t="s">
-        <v>316</v>
-      </c>
-      <c r="D134" s="42"/>
-      <c r="E134" s="44">
-        <v>45688</v>
-      </c>
-      <c r="F134" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" s="45" t="s">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E134" s="16"/>
+      <c r="F134" s="82"/>
+      <c r="G134" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H134" s="1" t="str">
@@ -6172,46 +5947,46 @@
         <v>-</v>
       </c>
     </row>
-    <row r="135" s="46" customFormat="1">
+    <row r="135" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="41" t="s">
         <v>314</v>
       </c>
       <c r="B135" s="41" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C135" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="D135" s="42" t="s">
-        <v>319</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="D135" s="42"/>
       <c r="E135" s="44">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="F135" s="108" t="s">
         <v>12</v>
       </c>
       <c r="G135" s="45" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="H135" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>В2Г</v>
-      </c>
-    </row>
-    <row r="136" s="46" customFormat="1" ht="28.5">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="46" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A136" s="41" t="s">
         <v>314</v>
       </c>
       <c r="B136" s="41" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C136" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="D136" s="42"/>
+        <v>318</v>
+      </c>
+      <c r="D136" s="42" t="s">
+        <v>319</v>
+      </c>
       <c r="E136" s="44">
-        <v>45636</v>
+        <v>45687</v>
       </c>
       <c r="F136" s="108" t="s">
         <v>12</v>
@@ -6224,7 +5999,7 @@
         <v>В2Г</v>
       </c>
     </row>
-    <row r="137" s="46" customFormat="1" ht="28.5">
+    <row r="137" spans="1:8" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="41" t="s">
         <v>314</v>
       </c>
@@ -6232,24 +6007,24 @@
         <v>320</v>
       </c>
       <c r="C137" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D137" s="42"/>
       <c r="E137" s="44">
-        <v>45671</v>
+        <v>45636</v>
       </c>
       <c r="F137" s="108" t="s">
         <v>12</v>
       </c>
       <c r="G137" s="45" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="H137" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="138" s="46" customFormat="1" ht="28.5">
+        <v>В2Г</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="41" t="s">
         <v>314</v>
       </c>
@@ -6257,14 +6032,14 @@
         <v>320</v>
       </c>
       <c r="C138" s="42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D138" s="42"/>
       <c r="E138" s="44">
-        <v>45750</v>
-      </c>
-      <c r="F138" s="44" t="s">
-        <v>39</v>
+        <v>45671</v>
+      </c>
+      <c r="F138" s="108" t="s">
+        <v>12</v>
       </c>
       <c r="G138" s="45" t="s">
         <v>13</v>
@@ -6274,32 +6049,32 @@
         <v>-</v>
       </c>
     </row>
-    <row r="139" s="46" customFormat="1">
+    <row r="139" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="41" t="s">
         <v>314</v>
       </c>
       <c r="B139" s="41" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C139" s="42" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D139" s="42"/>
       <c r="E139" s="44">
-        <v>45639</v>
-      </c>
-      <c r="F139" s="108" t="s">
-        <v>12</v>
+        <v>45750</v>
+      </c>
+      <c r="F139" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="G139" s="45" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="H139" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>В2Г</v>
-      </c>
-    </row>
-    <row r="140" s="46" customFormat="1" ht="57">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="41" t="s">
         <v>314</v>
       </c>
@@ -6307,13 +6082,11 @@
         <v>324</v>
       </c>
       <c r="C140" s="42" t="s">
-        <v>326</v>
-      </c>
-      <c r="D140" s="42" t="s">
-        <v>327</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="D140" s="42"/>
       <c r="E140" s="44">
-        <v>45646</v>
+        <v>45639</v>
       </c>
       <c r="F140" s="108" t="s">
         <v>12</v>
@@ -6326,7 +6099,7 @@
         <v>В2Г</v>
       </c>
     </row>
-    <row r="141" s="46" customFormat="1" ht="57">
+    <row r="141" spans="1:8" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="41" t="s">
         <v>314</v>
       </c>
@@ -6334,11 +6107,13 @@
         <v>324</v>
       </c>
       <c r="C141" s="42" t="s">
-        <v>328</v>
-      </c>
-      <c r="D141" s="42"/>
+        <v>326</v>
+      </c>
+      <c r="D141" s="42" t="s">
+        <v>327</v>
+      </c>
       <c r="E141" s="44">
-        <v>45678</v>
+        <v>45646</v>
       </c>
       <c r="F141" s="108" t="s">
         <v>12</v>
@@ -6351,7 +6126,7 @@
         <v>В2Г</v>
       </c>
     </row>
-    <row r="142" s="46" customFormat="1" ht="57">
+    <row r="142" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="41" t="s">
         <v>314</v>
       </c>
@@ -6359,11 +6134,11 @@
         <v>324</v>
       </c>
       <c r="C142" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D142" s="42"/>
       <c r="E142" s="44">
-        <v>45685</v>
+        <v>45678</v>
       </c>
       <c r="F142" s="108" t="s">
         <v>12</v>
@@ -6376,7 +6151,7 @@
         <v>В2Г</v>
       </c>
     </row>
-    <row r="143" s="46" customFormat="1" ht="57">
+    <row r="143" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="41" t="s">
         <v>314</v>
       </c>
@@ -6384,11 +6159,11 @@
         <v>324</v>
       </c>
       <c r="C143" s="42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D143" s="42"/>
       <c r="E143" s="44">
-        <v>45700</v>
+        <v>45685</v>
       </c>
       <c r="F143" s="108" t="s">
         <v>12</v>
@@ -6401,7 +6176,7 @@
         <v>В2Г</v>
       </c>
     </row>
-    <row r="144" s="46" customFormat="1" ht="57">
+    <row r="144" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="41" t="s">
         <v>314</v>
       </c>
@@ -6409,11 +6184,11 @@
         <v>324</v>
       </c>
       <c r="C144" s="42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D144" s="42"/>
       <c r="E144" s="44">
-        <v>45707</v>
+        <v>45700</v>
       </c>
       <c r="F144" s="108" t="s">
         <v>12</v>
@@ -6426,7 +6201,7 @@
         <v>В2Г</v>
       </c>
     </row>
-    <row r="145" s="46" customFormat="1" ht="57">
+    <row r="145" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="41" t="s">
         <v>314</v>
       </c>
@@ -6434,11 +6209,11 @@
         <v>324</v>
       </c>
       <c r="C145" s="42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D145" s="42"/>
       <c r="E145" s="44">
-        <v>45714</v>
+        <v>45707</v>
       </c>
       <c r="F145" s="108" t="s">
         <v>12</v>
@@ -6451,7 +6226,7 @@
         <v>В2Г</v>
       </c>
     </row>
-    <row r="146" s="46" customFormat="1" ht="57">
+    <row r="146" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="41" t="s">
         <v>314</v>
       </c>
@@ -6459,11 +6234,11 @@
         <v>324</v>
       </c>
       <c r="C146" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D146" s="42"/>
       <c r="E146" s="44">
-        <v>45721</v>
+        <v>45714</v>
       </c>
       <c r="F146" s="108" t="s">
         <v>12</v>
@@ -6476,7 +6251,7 @@
         <v>В2Г</v>
       </c>
     </row>
-    <row r="147" s="46" customFormat="1" ht="57">
+    <row r="147" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="41" t="s">
         <v>314</v>
       </c>
@@ -6484,11 +6259,11 @@
         <v>324</v>
       </c>
       <c r="C147" s="42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D147" s="42"/>
       <c r="E147" s="44">
-        <v>45742</v>
+        <v>45721</v>
       </c>
       <c r="F147" s="108" t="s">
         <v>12</v>
@@ -6501,60 +6276,59 @@
         <v>В2Г</v>
       </c>
     </row>
-    <row r="148" s="46" customFormat="1" ht="57">
+    <row r="148" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="41" t="s">
         <v>314</v>
       </c>
       <c r="B148" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="C148" s="113" t="s">
-        <v>335</v>
-      </c>
-      <c r="D148" s="42" t="s">
-        <v>336</v>
-      </c>
+      <c r="C148" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="D148" s="42"/>
       <c r="E148" s="44">
-        <v>45749</v>
-      </c>
-      <c r="F148" s="44" t="s">
-        <v>39</v>
+        <v>45742</v>
+      </c>
+      <c r="F148" s="108" t="s">
+        <v>12</v>
       </c>
       <c r="G148" s="45" t="s">
         <v>133</v>
       </c>
       <c r="H148" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>В2</v>
-      </c>
-    </row>
-    <row r="149" s="46" customFormat="1" ht="57">
+        <v>В2Г</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="41" t="s">
         <v>314</v>
       </c>
       <c r="B149" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="C149" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D149" s="42"/>
+      <c r="C149" s="113" t="s">
+        <v>335</v>
+      </c>
+      <c r="D149" s="42" t="s">
+        <v>336</v>
+      </c>
       <c r="E149" s="44">
-        <v>45758</v>
+        <v>45749</v>
       </c>
       <c r="F149" s="44" t="s">
         <v>39</v>
       </c>
       <c r="G149" s="45" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="H149" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="I149" s="46"/>
-    </row>
-    <row r="150" s="46" customFormat="1" ht="57">
+        <v>В2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="41" t="s">
         <v>314</v>
       </c>
@@ -6562,7 +6336,7 @@
         <v>324</v>
       </c>
       <c r="C150" s="42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D150" s="42"/>
       <c r="E150" s="44">
@@ -6572,53 +6346,56 @@
         <v>39</v>
       </c>
       <c r="G150" s="45" t="s">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="H150" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>В2</v>
-      </c>
-      <c r="I150" s="46"/>
-    </row>
-    <row r="151">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="41" t="s">
         <v>314</v>
       </c>
       <c r="B151" s="41" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C151" s="42" t="s">
-        <v>340</v>
-      </c>
-      <c r="D151" s="41"/>
+        <v>338</v>
+      </c>
+      <c r="D151" s="42"/>
       <c r="E151" s="44">
-        <v>45614</v>
-      </c>
-      <c r="F151" s="108" t="s">
-        <v>12</v>
+        <v>45758</v>
+      </c>
+      <c r="F151" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="G151" s="45" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="H151" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="D152" s="11"/>
-      <c r="E152" s="16"/>
-      <c r="F152" s="82"/>
-      <c r="G152" s="15" t="s">
+        <v>В2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B152" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="C152" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="D152" s="41"/>
+      <c r="E152" s="44">
+        <v>45614</v>
+      </c>
+      <c r="F152" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="45" t="s">
         <v>13</v>
       </c>
       <c r="H152" s="1" t="str">
@@ -6626,15 +6403,15 @@
         <v>-</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>341</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D153" s="11"/>
       <c r="E153" s="16"/>
@@ -6647,26 +6424,20 @@
         <v>-</v>
       </c>
     </row>
-    <row r="154" ht="28.5">
-      <c r="A154" s="114" t="s">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B154" s="114" t="s">
-        <v>346</v>
-      </c>
-      <c r="C154" s="110" t="s">
-        <v>347</v>
-      </c>
-      <c r="D154" s="115" t="s">
-        <v>348</v>
-      </c>
-      <c r="E154" s="116">
-        <v>45645</v>
-      </c>
-      <c r="F154" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" s="118" t="s">
+      <c r="B154" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D154" s="11"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="82"/>
+      <c r="G154" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H154" s="1" t="str">
@@ -6674,26 +6445,26 @@
         <v>-</v>
       </c>
     </row>
-    <row r="155" ht="14.25">
-      <c r="A155" s="58" t="s">
+    <row r="155" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="114" t="s">
         <v>341</v>
       </c>
-      <c r="B155" s="119" t="s">
-        <v>349</v>
-      </c>
-      <c r="C155" s="119" t="s">
-        <v>350</v>
-      </c>
-      <c r="D155" s="119" t="s">
-        <v>351</v>
-      </c>
-      <c r="E155" s="120">
-        <v>45757</v>
-      </c>
-      <c r="F155" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="G155" s="121" t="s">
+      <c r="B155" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="C155" s="110" t="s">
+        <v>347</v>
+      </c>
+      <c r="D155" s="115" t="s">
+        <v>348</v>
+      </c>
+      <c r="E155" s="116">
+        <v>45645</v>
+      </c>
+      <c r="F155" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" s="118" t="s">
         <v>13</v>
       </c>
       <c r="H155" s="1" t="str">
@@ -6701,189 +6472,209 @@
         <v>-</v>
       </c>
     </row>
+    <row r="156" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A156" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="B156" s="119" t="s">
+        <v>349</v>
+      </c>
+      <c r="C156" s="119" t="s">
+        <v>350</v>
+      </c>
+      <c r="D156" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="E156" s="120">
+        <v>45757</v>
+      </c>
+      <c r="F156" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G156" s="121" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D8"/>
-    <hyperlink r:id="rId2" ref="D34"/>
-    <hyperlink r:id="rId3" ref="D72"/>
-    <hyperlink r:id="rId4" ref="D74"/>
-    <hyperlink r:id="rId5" ref="D75"/>
-    <hyperlink r:id="rId6" ref="D77"/>
-    <hyperlink r:id="rId7" ref="D97"/>
-    <hyperlink r:id="rId8" ref="D111"/>
-    <hyperlink r:id="rId9" ref="D115"/>
-    <hyperlink r:id="rId10" ref="C148" tooltip="&quot;Поколение Python&quot;: курс для начинающих"/>
-    <hyperlink r:id="rId11" ref="D154" tooltip=""/>
+    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D34" r:id="rId2"/>
+    <hyperlink ref="D72" r:id="rId3"/>
+    <hyperlink ref="D74" r:id="rId4"/>
+    <hyperlink ref="D75" r:id="rId5"/>
+    <hyperlink ref="D77" r:id="rId6"/>
+    <hyperlink ref="D98" r:id="rId7"/>
+    <hyperlink ref="D112" r:id="rId8"/>
+    <hyperlink ref="D116" r:id="rId9"/>
+    <hyperlink ref="C149" r:id="rId10" tooltip="&quot;Поколение Python&quot;: курс для начинающих"/>
+    <hyperlink ref="D155" r:id="rId11"/>
   </hyperlinks>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId14"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait" r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A6" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="2" ht="14.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="4" ht="14.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="122" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="5" ht="14.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="123" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="6" ht="14.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="123" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="9" ht="14.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="123" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="10" ht="14.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="124" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="11" ht="14.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="12" ht="14.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="13" ht="14.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="14" ht="14.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="15" ht="14.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="16" ht="14.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="17" ht="14.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="18" ht="14.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="19" ht="14.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="20" ht="14.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="124" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="21" ht="14.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="22" ht="14.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="123" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="23" ht="14.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="24" ht="14.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="125" t="s">
         <v>375</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="61.57421875"/>
-    <col customWidth="1" min="3" max="3" width="53.57421875"/>
-    <col customWidth="1" min="4" max="4" width="56.421875"/>
+    <col min="2" max="2" width="61.5703125" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="126" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="3" ht="14.25"/>
-    <row r="5" ht="14.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6894,7 +6685,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" ht="14.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6905,7 +6696,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6913,7 +6704,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="11" ht="285">
+    <row r="11" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>168</v>
       </c>
@@ -6927,33 +6718,27 @@
         <v>382</v>
       </c>
     </row>
-    <row r="23" ht="14.25"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" ht="21">
+    <row r="2" spans="2:2" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="126" t="s">
         <v>383</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
 </worksheet>
 </file>